--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/wp_2.2/4_twenty_bus_radial_grid_dyn_sgen_pf_sc_results_0_bus_sgen4.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/wp_2.2/4_twenty_bus_radial_grid_dyn_sgen_pf_sc_results_0_bus_sgen4.xlsx
@@ -571,13 +571,13 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.74888659435884</v>
+        <v>57.74195839440164</v>
       </c>
       <c r="C2">
-        <v>1000.240056619627</v>
+        <v>1000.120056676319</v>
       </c>
       <c r="D2">
-        <v>0.01094540889423945</v>
+        <v>0.01094540889423946</v>
       </c>
       <c r="E2">
         <v>0.1094540870674545</v>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.03466633808235479</v>
+        <v>0.01733317082024547</v>
       </c>
       <c r="G3">
-        <v>0.9304555912532009</v>
+        <v>0.9305102412578585</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.03466635246305592</v>
+        <v>0.01733318542739829</v>
       </c>
       <c r="G4">
-        <v>0.9305011991931026</v>
+        <v>0.9306029539087681</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0669788360737574</v>
+        <v>0.01733318235220658</v>
       </c>
       <c r="G5">
-        <v>-9.780072376004965</v>
+        <v>0.9305834354682184</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08349921232388169</v>
+        <v>0.01733318696499868</v>
       </c>
       <c r="G6">
-        <v>-11.99103940387103</v>
+        <v>0.9306127131249021</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.100102806701019</v>
+        <v>0.0173331908089954</v>
       </c>
       <c r="G7">
-        <v>-13.47019655268504</v>
+        <v>0.9306371111599595</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1167541203708839</v>
+        <v>0.01733319157779507</v>
       </c>
       <c r="G8">
-        <v>-14.52799305172252</v>
+        <v>0.9306419907653773</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1001028076439336</v>
+        <v>0.01733319311539503</v>
       </c>
       <c r="G9">
-        <v>-13.47019396086128</v>
+        <v>0.9306517499758878</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1001028082725433</v>
+        <v>0.01733319465299526</v>
       </c>
       <c r="G10">
-        <v>-13.47019223297887</v>
+        <v>0.930661509184477</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1001028085868483</v>
+        <v>0.01733319542179579</v>
       </c>
       <c r="G11">
-        <v>-13.47019136903762</v>
+        <v>0.9306663887876618</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.05062321331770567</v>
+        <v>0.03348941486148121</v>
       </c>
       <c r="G12">
-        <v>-6.131697978042831</v>
+        <v>-9.780056103021026</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03466634035298998</v>
+        <v>0.01733317312663507</v>
       </c>
       <c r="G13">
-        <v>0.9304627925099226</v>
+        <v>0.9305248801077228</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.0346663426236266</v>
+        <v>0.01733317543302603</v>
       </c>
       <c r="G14">
-        <v>0.9304699937645646</v>
+        <v>0.9305395189539054</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05062321591881455</v>
+        <v>0.01733317697062115</v>
       </c>
       <c r="G15">
-        <v>-6.131689190028017</v>
+        <v>0.9305492781821468</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05062321276214225</v>
+        <v>0.03348941439616884</v>
       </c>
       <c r="G16">
-        <v>-6.131699692753315</v>
+        <v>-9.780058794092197</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03466633959611159</v>
+        <v>0.01733317235783842</v>
       </c>
       <c r="G17">
-        <v>0.9304603920910302</v>
+        <v>0.9305200004917769</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -951,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03466634640802122</v>
+        <v>0.01733317927701333</v>
       </c>
       <c r="G18">
-        <v>0.9304819958545285</v>
+        <v>0.9305639170220842</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03466634943553797</v>
+        <v>0.01733318235220503</v>
       </c>
       <c r="G19">
-        <v>0.9304915975246995</v>
+        <v>0.9305834354688877</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.03466635170617634</v>
+        <v>0.01733318465859985</v>
       </c>
       <c r="G20">
-        <v>0.9304987987760019</v>
+        <v>0.9305980742994373</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.03466635246305592</v>
+        <v>0.01733318542739851</v>
       </c>
       <c r="G21">
-        <v>0.9305011991930005</v>
+        <v>0.9306029539083721</v>
       </c>
     </row>
   </sheetData>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.01200285961343</v>
+        <v>50.00600284739324</v>
       </c>
       <c r="D2">
-        <v>50.01200285961343</v>
+        <v>50.00600284739324</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.7444331371015</v>
+        <v>288.7097920503968</v>
       </c>
       <c r="G2">
-        <v>288.7444331371015</v>
+        <v>288.7097920503968</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -1127,34 +1127,34 @@
         <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110854</v>
+        <v>0.01094540894378635</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248848</v>
+        <v>0.1094540869961677</v>
       </c>
       <c r="N2">
-        <v>0.9528565947992532</v>
+        <v>0.9527422797908277</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9528565948022638</v>
+        <v>0.9527422797938429</v>
       </c>
       <c r="Q2">
-        <v>-2.830859821174382E-08</v>
+        <v>-1.41977711060248E-08</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999718571</v>
+        <v>179.9999999859677</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1198,22 +1198,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9841860422612811</v>
+        <v>0.9683634549453121</v>
       </c>
       <c r="O3">
-        <v>0.03631720724327807</v>
+        <v>0.01815860550168578</v>
       </c>
       <c r="P3">
-        <v>0.9847569292263266</v>
+        <v>0.9686535841370626</v>
       </c>
       <c r="Q3">
-        <v>1.086782048228073</v>
+        <v>0.552245251583937</v>
       </c>
       <c r="R3">
-        <v>-89.06942682773824</v>
+        <v>-89.06937222489292</v>
       </c>
       <c r="S3">
-        <v>178.9732788367622</v>
+        <v>179.4781257426046</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9841860280889456</v>
+        <v>0.9683634406802236</v>
       </c>
       <c r="O4">
-        <v>0.03631722160247087</v>
+        <v>0.01815862009811276</v>
       </c>
       <c r="P4">
-        <v>0.9847569428538707</v>
+        <v>0.9686535981341206</v>
       </c>
       <c r="Q4">
-        <v>1.086782420269469</v>
+        <v>0.5522456533528813</v>
       </c>
       <c r="R4">
-        <v>-89.06938336107802</v>
+        <v>-89.06928379481293</v>
       </c>
       <c r="S4">
-        <v>178.9732783977075</v>
+        <v>179.4781253072871</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1316,22 +1316,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.017406571012126</v>
+        <v>0.9683634436833997</v>
       </c>
       <c r="O5">
-        <v>0.06860171348419462</v>
+        <v>0.01815861702517541</v>
       </c>
       <c r="P5">
-        <v>1.00672004927773</v>
+        <v>0.968653595187371</v>
       </c>
       <c r="Q5">
-        <v>1.351583991891923</v>
+        <v>0.5522455687698298</v>
       </c>
       <c r="R5">
-        <v>-99.5237219064509</v>
+        <v>-89.06930241165949</v>
       </c>
       <c r="S5">
-        <v>177.5144868794334</v>
+        <v>179.4781253989329</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.034024593100108</v>
+        <v>0.9683634391786345</v>
       </c>
       <c r="O6">
-        <v>0.08510920239773503</v>
+        <v>0.01815862163457893</v>
       </c>
       <c r="P6">
-        <v>1.017938372475254</v>
+        <v>0.9686535996074945</v>
       </c>
       <c r="Q6">
-        <v>1.47760304868644</v>
+        <v>0.5522456956441906</v>
       </c>
       <c r="R6">
-        <v>-101.7424141683029</v>
+        <v>-89.06927448639082</v>
       </c>
       <c r="S6">
-        <v>176.8089252453356</v>
+        <v>179.4781252614642</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1434,22 +1434,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.050647459869927</v>
+        <v>0.9683634354246639</v>
       </c>
       <c r="O7">
-        <v>0.1017028016658339</v>
+        <v>0.01815862547575169</v>
       </c>
       <c r="P7">
-        <v>1.029307680776459</v>
+        <v>0.968653603290931</v>
       </c>
       <c r="Q7">
-        <v>1.599635033291183</v>
+        <v>0.5522458013728283</v>
       </c>
       <c r="R7">
-        <v>-103.2387882992964</v>
+        <v>-89.06925121534385</v>
       </c>
       <c r="S7">
-        <v>176.1188475799137</v>
+        <v>179.478125146907</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1493,22 +1493,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.067274947323624</v>
+        <v>0.9683634346738696</v>
       </c>
       <c r="O8">
-        <v>0.1183462947371765</v>
+        <v>0.01815862624398644</v>
       </c>
       <c r="P8">
-        <v>1.040823024452801</v>
+        <v>0.968653604027618</v>
       </c>
       <c r="Q8">
-        <v>1.717865121444156</v>
+        <v>0.5522458225185505</v>
       </c>
       <c r="R8">
-        <v>-104.3148554733021</v>
+        <v>-89.06924656113571</v>
       </c>
       <c r="S8">
-        <v>175.4439434982031</v>
+        <v>179.4781251239956</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1552,22 +1552,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.050647457540492</v>
+        <v>0.9683634331722811</v>
       </c>
       <c r="O9">
-        <v>0.1017028026253943</v>
+        <v>0.01815862778045645</v>
       </c>
       <c r="P9">
-        <v>1.029307682688148</v>
+        <v>0.9686536055009927</v>
       </c>
       <c r="Q9">
-        <v>1.599635073458342</v>
+        <v>0.5522458648100063</v>
       </c>
       <c r="R9">
-        <v>-103.2387857546033</v>
+        <v>-89.06923725272021</v>
       </c>
       <c r="S9">
-        <v>176.1188475147567</v>
+        <v>179.4781250781727</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1611,22 +1611,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.050647455987535</v>
+        <v>0.9683634316706929</v>
       </c>
       <c r="O10">
-        <v>0.1017028032651012</v>
+        <v>0.0181586293169268</v>
       </c>
       <c r="P10">
-        <v>1.029307683962607</v>
+        <v>0.9686536069743673</v>
       </c>
       <c r="Q10">
-        <v>1.599635100236443</v>
+        <v>0.5522459071014553</v>
       </c>
       <c r="R10">
-        <v>-103.2387840581413</v>
+        <v>-89.06922794430608</v>
       </c>
       <c r="S10">
-        <v>176.1188474713188</v>
+        <v>179.4781250323498</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1670,22 +1670,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.050647455211057</v>
+        <v>0.9683634309198988</v>
       </c>
       <c r="O11">
-        <v>0.1017028035849548</v>
+        <v>0.01815863008516203</v>
       </c>
       <c r="P11">
-        <v>1.029307684599837</v>
+        <v>0.9686536077110549</v>
       </c>
       <c r="Q11">
-        <v>1.599635113625497</v>
+        <v>0.5522459282471718</v>
       </c>
       <c r="R11">
-        <v>-103.2387832099102</v>
+        <v>-89.0692232900995</v>
       </c>
       <c r="S11">
-        <v>176.1188474495998</v>
+        <v>179.4781250094384</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1729,22 +1729,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.000793638899658</v>
+        <v>0.984948821479012</v>
       </c>
       <c r="O12">
-        <v>0.05226199272763533</v>
+        <v>0.03430085356688932</v>
       </c>
       <c r="P12">
-        <v>0.9956578113209523</v>
+        <v>0.9794437466036083</v>
       </c>
       <c r="Q12">
-        <v>1.221380402332686</v>
+        <v>0.6980143652691617</v>
       </c>
       <c r="R12">
-        <v>-95.90907431599285</v>
+        <v>-99.52370467613989</v>
       </c>
       <c r="S12">
-        <v>178.235838324823</v>
+        <v>178.7229291098703</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1788,22 +1788,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.984186040023544</v>
+        <v>0.9683634526929297</v>
       </c>
       <c r="O13">
-        <v>0.03631720951051649</v>
+        <v>0.01815860780638081</v>
       </c>
       <c r="P13">
-        <v>0.9847569313780444</v>
+        <v>0.9686535863471248</v>
       </c>
       <c r="Q13">
-        <v>1.086782106971415</v>
+        <v>0.5522453150210929</v>
       </c>
       <c r="R13">
-        <v>-89.06941996457847</v>
+        <v>-89.06935826223773</v>
       </c>
       <c r="S13">
-        <v>178.9732787674378</v>
+        <v>179.4781256738703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1847,22 +1847,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9841860377858067</v>
+        <v>0.9683634504405473</v>
       </c>
       <c r="O14">
-        <v>0.0363172117777576</v>
+        <v>0.01815861011107909</v>
       </c>
       <c r="P14">
-        <v>0.9847569335297616</v>
+        <v>0.9686535885571862</v>
       </c>
       <c r="Q14">
-        <v>1.086782165714825</v>
+        <v>0.5522453784583329</v>
       </c>
       <c r="R14">
-        <v>-89.06941310142072</v>
+        <v>-89.06934429958842</v>
       </c>
       <c r="S14">
-        <v>178.9732786981134</v>
+        <v>179.4781256051359</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1906,22 +1906,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.000793634896831</v>
+        <v>0.9683634489389589</v>
       </c>
       <c r="O15">
-        <v>0.0522619953545955</v>
+        <v>0.01815861164754354</v>
       </c>
       <c r="P15">
-        <v>0.9956578147686311</v>
+        <v>0.9686535900305605</v>
       </c>
       <c r="Q15">
-        <v>1.221380498238828</v>
+        <v>0.5522454207497416</v>
       </c>
       <c r="R15">
-        <v>-95.9090658278037</v>
+        <v>-89.06933499115738</v>
       </c>
       <c r="S15">
-        <v>178.2358382261174</v>
+        <v>179.478125559313</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.000793639653019</v>
+        <v>0.9849488222369117</v>
       </c>
       <c r="O16">
-        <v>0.0522619921670462</v>
+        <v>0.03430085309489646</v>
       </c>
       <c r="P16">
-        <v>0.9956578106236382</v>
+        <v>0.9794437458869106</v>
       </c>
       <c r="Q16">
-        <v>1.221380384374803</v>
+        <v>0.6980143457938356</v>
       </c>
       <c r="R16">
-        <v>-95.90907597193709</v>
+        <v>-99.52370729800971</v>
       </c>
       <c r="S16">
-        <v>178.2358383475126</v>
+        <v>178.7229291323206</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2024,22 +2024,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9841860407694564</v>
+        <v>0.9683634534437237</v>
       </c>
       <c r="O17">
-        <v>0.03631720875477022</v>
+        <v>0.01815860703814899</v>
       </c>
       <c r="P17">
-        <v>0.9847569306608049</v>
+        <v>0.9686535856104372</v>
       </c>
       <c r="Q17">
-        <v>1.086782087390299</v>
+        <v>0.55224529387537</v>
       </c>
       <c r="R17">
-        <v>-89.06942225229847</v>
+        <v>-89.06936291645593</v>
       </c>
       <c r="S17">
-        <v>178.9732787905459</v>
+        <v>179.4781256967817</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9841860340562448</v>
+        <v>0.9683634466865764</v>
       </c>
       <c r="O18">
-        <v>0.03631721555649237</v>
+        <v>0.01815861395224343</v>
       </c>
       <c r="P18">
-        <v>0.9847569371159572</v>
+        <v>0.9686535922406224</v>
       </c>
       <c r="Q18">
-        <v>1.086782263620464</v>
+        <v>0.5522454841869967</v>
       </c>
       <c r="R18">
-        <v>-89.06940166282577</v>
+        <v>-89.06932102851275</v>
       </c>
       <c r="S18">
-        <v>178.9732785825727</v>
+        <v>179.4781254905787</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2142,22 +2142,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9841860310725953</v>
+        <v>0.9683634436833999</v>
       </c>
       <c r="O19">
-        <v>0.03631721857948132</v>
+        <v>0.01815861702517733</v>
       </c>
       <c r="P19">
-        <v>0.9847569399849139</v>
+        <v>0.9686535951873713</v>
       </c>
       <c r="Q19">
-        <v>1.086782341944971</v>
+        <v>0.5522455687699425</v>
       </c>
       <c r="R19">
-        <v>-89.06939251195115</v>
+        <v>-89.06930241166</v>
       </c>
       <c r="S19">
-        <v>178.9732784901401</v>
+        <v>179.4781253989329</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2201,22 +2201,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9841860288348581</v>
+        <v>0.9683634414310177</v>
       </c>
       <c r="O20">
-        <v>0.03631722084672381</v>
+        <v>0.01815861932987903</v>
       </c>
       <c r="P20">
-        <v>0.9847569421366315</v>
+        <v>0.9686535973974331</v>
       </c>
       <c r="Q20">
-        <v>1.08678240068836</v>
+        <v>0.5522456322071582</v>
       </c>
       <c r="R20">
-        <v>-89.0693856487962</v>
+        <v>-89.06928844902463</v>
       </c>
       <c r="S20">
-        <v>178.9732784208157</v>
+        <v>179.4781253301986</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2260,22 +2260,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9841860280889457</v>
+        <v>0.9683634406802236</v>
       </c>
       <c r="O21">
-        <v>0.03631722160247113</v>
+        <v>0.01815862009811308</v>
       </c>
       <c r="P21">
-        <v>0.9847569428538707</v>
+        <v>0.9686535981341206</v>
       </c>
       <c r="Q21">
-        <v>1.086782420269478</v>
+        <v>0.5522456533528874</v>
       </c>
       <c r="R21">
-        <v>-89.06938336107814</v>
+        <v>-89.06928379481295</v>
       </c>
       <c r="S21">
-        <v>178.9732783977075</v>
+        <v>179.4781253072871</v>
       </c>
     </row>
   </sheetData>
@@ -2358,25 +2358,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.519139699552793</v>
+        <v>1.518957446622094</v>
       </c>
       <c r="D2">
-        <v>1.519139699552793</v>
+        <v>1.518957446622094</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8.770757144734525</v>
+        <v>8.769704906948528</v>
       </c>
       <c r="G2">
-        <v>8.770757144734525</v>
+        <v>8.769704906948528</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
         <v>0.01094540889714035</v>
@@ -2385,28 +2385,28 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110859</v>
+        <v>0.0109454089437864</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248848</v>
+        <v>0.1094540869961676</v>
       </c>
       <c r="N2">
-        <v>1.102767800603659</v>
+        <v>1.10263550030181</v>
       </c>
       <c r="O2">
-        <v>1.074193983122848</v>
+        <v>1.074065110839663</v>
       </c>
       <c r="P2">
-        <v>1.084767679009612</v>
+        <v>1.084637538181378</v>
       </c>
       <c r="Q2">
-        <v>29.14059841671368</v>
+        <v>29.14059841692701</v>
       </c>
       <c r="R2">
-        <v>-91.10214746399707</v>
+        <v>-91.10214746465756</v>
       </c>
       <c r="S2">
-        <v>150.3279625897159</v>
+        <v>150.3279625901917</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.137417734542588</v>
+        <v>1.119960340343566</v>
       </c>
       <c r="O3">
-        <v>1.10883918899989</v>
+        <v>1.091387545948792</v>
       </c>
       <c r="P3">
-        <v>1.119432159681828</v>
+        <v>1.101969764180575</v>
       </c>
       <c r="Q3">
-        <v>29.19513928024644</v>
+        <v>29.16829392302454</v>
       </c>
       <c r="R3">
-        <v>-91.03861572697599</v>
+        <v>-91.06987363235363</v>
       </c>
       <c r="S3">
-        <v>150.3466183336965</v>
+        <v>150.3374382882207</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2509,22 +2509,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.137417733648726</v>
+        <v>1.119960339664181</v>
       </c>
       <c r="O4">
-        <v>1.108839188361163</v>
+        <v>1.091387545522208</v>
       </c>
       <c r="P4">
-        <v>1.119432159601583</v>
+        <v>1.101969764323842</v>
       </c>
       <c r="Q4">
-        <v>29.19513924102886</v>
+        <v>29.1682939068624</v>
       </c>
       <c r="R4">
-        <v>-91.03861572569416</v>
+        <v>-91.06987360671982</v>
       </c>
       <c r="S4">
-        <v>150.3466183032367</v>
+        <v>150.3374382811193</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2568,22 +2568,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.168982580244549</v>
+        <v>1.119960339807209</v>
       </c>
       <c r="O5">
-        <v>1.140450816181493</v>
+        <v>1.091387545612015</v>
       </c>
       <c r="P5">
-        <v>1.150766939899806</v>
+        <v>1.10196976429368</v>
       </c>
       <c r="Q5">
-        <v>28.63152651742474</v>
+        <v>29.16829391026496</v>
       </c>
       <c r="R5">
-        <v>-91.60986596314746</v>
+        <v>-91.06987361211642</v>
       </c>
       <c r="S5">
-        <v>149.7426719205895</v>
+        <v>150.3374382826143</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2627,22 +2627,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.184805725529593</v>
+        <v>1.119960339592667</v>
       </c>
       <c r="O6">
-        <v>1.156297397776655</v>
+        <v>1.091387545477305</v>
       </c>
       <c r="P6">
-        <v>1.166480344602103</v>
+        <v>1.101969764338922</v>
       </c>
       <c r="Q6">
-        <v>28.36099474622408</v>
+        <v>29.16829390516112</v>
       </c>
       <c r="R6">
-        <v>-91.88376459993505</v>
+        <v>-91.06987360402154</v>
       </c>
       <c r="S6">
-        <v>149.4528824727892</v>
+        <v>150.3374382803718</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2686,22 +2686,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.200654588622245</v>
+        <v>1.119960339413881</v>
       </c>
       <c r="O7">
-        <v>1.172169688984298</v>
+        <v>1.091387545365046</v>
       </c>
       <c r="P7">
-        <v>1.182222795592827</v>
+        <v>1.101969764376624</v>
       </c>
       <c r="Q7">
-        <v>28.09759937483386</v>
+        <v>29.16829390090793</v>
       </c>
       <c r="R7">
-        <v>-92.1502514919231</v>
+        <v>-91.06987359727579</v>
       </c>
       <c r="S7">
-        <v>149.1708036312875</v>
+        <v>150.337438278503</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2745,22 +2745,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.216528164751239</v>
+        <v>1.119960339378124</v>
       </c>
       <c r="O8">
-        <v>1.188066659722507</v>
+        <v>1.091387545342594</v>
       </c>
       <c r="P8">
-        <v>1.197993148061918</v>
+        <v>1.101969764384165</v>
       </c>
       <c r="Q8">
-        <v>27.84107242345858</v>
+        <v>29.16829390005729</v>
       </c>
       <c r="R8">
-        <v>-92.40961238057415</v>
+        <v>-91.06987359592665</v>
       </c>
       <c r="S8">
-        <v>148.8961448552137</v>
+        <v>150.3374382781292</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2804,22 +2804,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.200654588262763</v>
+        <v>1.11996033930661</v>
       </c>
       <c r="O9">
-        <v>1.172169688663603</v>
+        <v>1.091387545297691</v>
       </c>
       <c r="P9">
-        <v>1.18222279535734</v>
+        <v>1.101969764399245</v>
       </c>
       <c r="Q9">
-        <v>28.09759935849508</v>
+        <v>29.16829389835601</v>
       </c>
       <c r="R9">
-        <v>-92.15025150247001</v>
+        <v>-91.06987359322835</v>
       </c>
       <c r="S9">
-        <v>149.170803616418</v>
+        <v>150.3374382773817</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2863,22 +2863,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.200654588023109</v>
+        <v>1.119960339235096</v>
       </c>
       <c r="O10">
-        <v>1.172169688449806</v>
+        <v>1.091387545252787</v>
       </c>
       <c r="P10">
-        <v>1.182222795200348</v>
+        <v>1.101969764414326</v>
       </c>
       <c r="Q10">
-        <v>28.09759934760256</v>
+        <v>29.16829389665473</v>
       </c>
       <c r="R10">
-        <v>-92.15025150950129</v>
+        <v>-91.06987359053007</v>
       </c>
       <c r="S10">
-        <v>149.170803606505</v>
+        <v>150.3374382766342</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.200654587903281</v>
+        <v>1.119960339199339</v>
       </c>
       <c r="O11">
-        <v>1.172169688342907</v>
+        <v>1.091387545230335</v>
       </c>
       <c r="P11">
-        <v>1.182222795121852</v>
+        <v>1.101969764421866</v>
       </c>
       <c r="Q11">
-        <v>28.0975993421563</v>
+        <v>29.16829389580409</v>
       </c>
       <c r="R11">
-        <v>-92.15025151301693</v>
+        <v>-91.06987358918092</v>
       </c>
       <c r="S11">
-        <v>149.1708036015486</v>
+        <v>150.3374382762604</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2981,22 +2981,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.153186211873611</v>
+        <v>1.135731692773419</v>
       </c>
       <c r="O12">
-        <v>1.124631031380682</v>
+        <v>1.107182669866108</v>
       </c>
       <c r="P12">
-        <v>1.135083788034025</v>
+        <v>1.117622603659773</v>
       </c>
       <c r="Q12">
-        <v>28.90947613572982</v>
+        <v>28.87861294248927</v>
       </c>
       <c r="R12">
-        <v>-91.32825507364284</v>
+        <v>-91.36363203394279</v>
       </c>
       <c r="S12">
-        <v>150.0404770564786</v>
+        <v>150.0266424015732</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3040,22 +3040,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.137417734401452</v>
+        <v>1.119960340236294</v>
       </c>
       <c r="O13">
-        <v>1.108839188899038</v>
+        <v>1.091387545881436</v>
       </c>
       <c r="P13">
-        <v>1.119432159669158</v>
+        <v>1.101969764203196</v>
       </c>
       <c r="Q13">
-        <v>29.19513927405419</v>
+        <v>29.16829392047262</v>
       </c>
       <c r="R13">
-        <v>-91.0386157267736</v>
+        <v>-91.06987362830618</v>
       </c>
       <c r="S13">
-        <v>150.346618328887</v>
+        <v>150.3374382870994</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3099,22 +3099,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.137417734260316</v>
+        <v>1.119960340129023</v>
       </c>
       <c r="O14">
-        <v>1.108839188798187</v>
+        <v>1.091387545814081</v>
       </c>
       <c r="P14">
-        <v>1.119432159656488</v>
+        <v>1.101969764225817</v>
       </c>
       <c r="Q14">
-        <v>29.19513926786194</v>
+        <v>29.16829391792071</v>
       </c>
       <c r="R14">
-        <v>-91.03861572657121</v>
+        <v>-91.06987362425873</v>
       </c>
       <c r="S14">
-        <v>150.3466183240776</v>
+        <v>150.3374382859781</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.153186211386793</v>
+        <v>1.119960340057509</v>
       </c>
       <c r="O15">
-        <v>1.124631030959474</v>
+        <v>1.091387545769178</v>
       </c>
       <c r="P15">
-        <v>1.135083787763453</v>
+        <v>1.101969764240897</v>
       </c>
       <c r="Q15">
-        <v>28.90947613121957</v>
+        <v>29.16829391621943</v>
       </c>
       <c r="R15">
-        <v>-91.32825506753443</v>
+        <v>-91.06987362156045</v>
       </c>
       <c r="S15">
-        <v>150.0404770546369</v>
+        <v>150.3374382852306</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -3217,22 +3217,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.153186211939099</v>
+        <v>1.13573169282773</v>
       </c>
       <c r="O16">
-        <v>1.12463103143288</v>
+        <v>1.107182669907254</v>
       </c>
       <c r="P16">
-        <v>1.135083788057077</v>
+        <v>1.117622603671186</v>
       </c>
       <c r="Q16">
-        <v>28.90947613866181</v>
+        <v>28.87861294423582</v>
       </c>
       <c r="R16">
-        <v>-91.32825507278979</v>
+        <v>-91.36363203434087</v>
       </c>
       <c r="S16">
-        <v>150.0404770589406</v>
+        <v>150.0266424028334</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -3276,22 +3276,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.137417734448498</v>
+        <v>1.119960340272051</v>
       </c>
       <c r="O17">
-        <v>1.108839188932655</v>
+        <v>1.091387545903888</v>
       </c>
       <c r="P17">
-        <v>1.119432159673382</v>
+        <v>1.101969764195655</v>
       </c>
       <c r="Q17">
-        <v>29.19513927611828</v>
+        <v>29.16829392132327</v>
       </c>
       <c r="R17">
-        <v>-91.03861572684106</v>
+        <v>-91.06987362965533</v>
       </c>
       <c r="S17">
-        <v>150.3466183304902</v>
+        <v>150.3374382874731</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -3335,22 +3335,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.137417734025089</v>
+        <v>1.119960339950238</v>
       </c>
       <c r="O18">
-        <v>1.108839188630101</v>
+        <v>1.091387545701822</v>
       </c>
       <c r="P18">
-        <v>1.119432159635371</v>
+        <v>1.101969764263518</v>
       </c>
       <c r="Q18">
-        <v>29.19513925754153</v>
+        <v>29.16829391366752</v>
       </c>
       <c r="R18">
-        <v>-91.03861572623387</v>
+        <v>-91.06987361751301</v>
       </c>
       <c r="S18">
-        <v>150.3466183160619</v>
+        <v>150.3374382841093</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -3394,22 +3394,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.137417733836908</v>
+        <v>1.119960339807209</v>
       </c>
       <c r="O19">
-        <v>1.108839188495632</v>
+        <v>1.091387545612015</v>
       </c>
       <c r="P19">
-        <v>1.119432159618477</v>
+        <v>1.10196976429368</v>
       </c>
       <c r="Q19">
-        <v>29.19513924928519</v>
+        <v>29.16829391026496</v>
       </c>
       <c r="R19">
-        <v>-91.03861572596401</v>
+        <v>-91.06987361211641</v>
       </c>
       <c r="S19">
-        <v>150.3466183096493</v>
+        <v>150.3374382826143</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -3453,22 +3453,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.137417733695771</v>
+        <v>1.119960339699938</v>
       </c>
       <c r="O20">
-        <v>1.108839188394781</v>
+        <v>1.09138754554466</v>
       </c>
       <c r="P20">
-        <v>1.119432159605807</v>
+        <v>1.101969764316301</v>
       </c>
       <c r="Q20">
-        <v>29.19513924309295</v>
+        <v>29.16829390771305</v>
       </c>
       <c r="R20">
-        <v>-91.03861572576163</v>
+        <v>-91.06987360806897</v>
       </c>
       <c r="S20">
-        <v>150.3466183048399</v>
+        <v>150.337438281493</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -3512,22 +3512,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.137417733648726</v>
+        <v>1.119960339664181</v>
       </c>
       <c r="O21">
-        <v>1.108839188361163</v>
+        <v>1.091387545522208</v>
       </c>
       <c r="P21">
-        <v>1.119432159601583</v>
+        <v>1.101969764323842</v>
       </c>
       <c r="Q21">
-        <v>29.19513924102886</v>
+        <v>29.1682939068624</v>
       </c>
       <c r="R21">
-        <v>-91.03861572569416</v>
+        <v>-91.06987360671982</v>
       </c>
       <c r="S21">
-        <v>150.3466183032367</v>
+        <v>150.3374382811193</v>
       </c>
     </row>
   </sheetData>
@@ -3610,19 +3610,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.51913969955275</v>
+        <v>1.518957446622073</v>
       </c>
       <c r="D2">
-        <v>1.51913969955275</v>
+        <v>1.518957446622073</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8.770757144734272</v>
+        <v>8.769704906948403</v>
       </c>
       <c r="G2">
-        <v>8.770757144734272</v>
+        <v>8.769704906948403</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -3631,34 +3631,34 @@
         <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110854</v>
+        <v>0.01094540894378635</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248848</v>
+        <v>0.1094540869961677</v>
       </c>
       <c r="N2">
-        <v>1.102767800603627</v>
+        <v>1.102635500301794</v>
       </c>
       <c r="O2">
-        <v>1.074193983122817</v>
+        <v>1.074065110839648</v>
       </c>
       <c r="P2">
-        <v>1.084767679009581</v>
+        <v>1.084637538181362</v>
       </c>
       <c r="Q2">
-        <v>29.14059841671369</v>
+        <v>29.14059841692702</v>
       </c>
       <c r="R2">
-        <v>-91.10214746399707</v>
+        <v>-91.10214746465755</v>
       </c>
       <c r="S2">
-        <v>150.3279625897159</v>
+        <v>150.3279625901917</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3702,22 +3702,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.139067756281416</v>
+        <v>1.120785339145852</v>
       </c>
       <c r="O3">
-        <v>1.110488993598723</v>
+        <v>1.092212432302934</v>
       </c>
       <c r="P3">
-        <v>1.121082852097627</v>
+        <v>1.102795109012993</v>
       </c>
       <c r="Q3">
-        <v>29.19765369645033</v>
+        <v>29.16959139958972</v>
       </c>
       <c r="R3">
-        <v>-91.03568928577999</v>
+        <v>-91.06836231832695</v>
       </c>
       <c r="S3">
-        <v>150.3474779255613</v>
+        <v>150.3378820825145</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3761,22 +3761,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.13906775536727</v>
+        <v>1.120785338456346</v>
       </c>
       <c r="O4">
-        <v>1.110488992939927</v>
+        <v>1.09221243186634</v>
       </c>
       <c r="P4">
-        <v>1.12108285199625</v>
+        <v>1.102795109145701</v>
       </c>
       <c r="Q4">
-        <v>29.19765365509043</v>
+        <v>29.1695913823215</v>
       </c>
       <c r="R4">
-        <v>-91.03568928676037</v>
+        <v>-91.06836229386214</v>
       </c>
       <c r="S4">
-        <v>150.3474778929312</v>
+        <v>150.3378820742923</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3820,22 +3820,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.170632031211467</v>
+        <v>1.120785338601506</v>
       </c>
       <c r="O5">
-        <v>1.1420999741832</v>
+        <v>1.092212431958255</v>
       </c>
       <c r="P5">
-        <v>1.152417363708731</v>
+        <v>1.102795109117762</v>
       </c>
       <c r="Q5">
-        <v>28.6347674249476</v>
+        <v>29.16959138595691</v>
       </c>
       <c r="R5">
-        <v>-91.60619548355147</v>
+        <v>-91.06836229901263</v>
       </c>
       <c r="S5">
-        <v>149.7443731549321</v>
+        <v>150.3378820760233</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3879,22 +3879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.186454845896904</v>
+        <v>1.120785338383767</v>
       </c>
       <c r="O6">
-        <v>1.15794618766942</v>
+        <v>1.092212431820383</v>
       </c>
       <c r="P6">
-        <v>1.168130574505542</v>
+        <v>1.10279510915967</v>
       </c>
       <c r="Q6">
-        <v>28.36456849798597</v>
+        <v>29.16959138050379</v>
       </c>
       <c r="R6">
-        <v>-91.87975430388491</v>
+        <v>-91.06836229128689</v>
       </c>
       <c r="S6">
-        <v>149.4549702365136</v>
+        <v>150.3378820734268</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3938,22 +3938,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.202303351824478</v>
+        <v>1.120785338202318</v>
       </c>
       <c r="O7">
-        <v>1.173818084603429</v>
+        <v>1.09221243170549</v>
       </c>
       <c r="P7">
-        <v>1.183872796255643</v>
+        <v>1.102795109194593</v>
       </c>
       <c r="Q7">
-        <v>28.10148726174351</v>
+        <v>29.16959137595952</v>
       </c>
       <c r="R7">
-        <v>-92.14592114801877</v>
+        <v>-91.06836228484879</v>
       </c>
       <c r="S7">
-        <v>149.1732568041</v>
+        <v>150.3378820712631</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3997,22 +3997,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.218176546645583</v>
+        <v>1.120785338166028</v>
       </c>
       <c r="O8">
-        <v>1.189714637406411</v>
+        <v>1.092212431682512</v>
       </c>
       <c r="P8">
-        <v>1.199642887134538</v>
+        <v>1.102795109201577</v>
       </c>
       <c r="Q8">
-        <v>27.84525681189742</v>
+        <v>29.16959137505068</v>
       </c>
       <c r="R8">
-        <v>-92.40498058742617</v>
+        <v>-91.06836228356116</v>
       </c>
       <c r="S8">
-        <v>148.8989435193134</v>
+        <v>150.3378820708303</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4056,22 +4056,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.202303351461908</v>
+        <v>1.120785338093449</v>
       </c>
       <c r="O9">
-        <v>1.173818084279683</v>
+        <v>1.092212431636554</v>
       </c>
       <c r="P9">
-        <v>1.183872796016949</v>
+        <v>1.102795109215547</v>
       </c>
       <c r="Q9">
-        <v>28.10148724509618</v>
+        <v>29.16959137323296</v>
       </c>
       <c r="R9">
-        <v>-92.14592115889053</v>
+        <v>-91.06836228098592</v>
       </c>
       <c r="S9">
-        <v>149.1732567889173</v>
+        <v>150.3378820699648</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4115,22 +4115,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.202303351220195</v>
+        <v>1.120785338020869</v>
       </c>
       <c r="O10">
-        <v>1.173818084063853</v>
+        <v>1.092212431590597</v>
       </c>
       <c r="P10">
-        <v>1.183872795857819</v>
+        <v>1.102795109229516</v>
       </c>
       <c r="Q10">
-        <v>28.10148723399796</v>
+        <v>29.16959137141525</v>
       </c>
       <c r="R10">
-        <v>-92.14592116613835</v>
+        <v>-91.06836227841067</v>
       </c>
       <c r="S10">
-        <v>149.1732567787955</v>
+        <v>150.3378820690993</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4174,22 +4174,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.202303351099339</v>
+        <v>1.120785337984579</v>
       </c>
       <c r="O11">
-        <v>1.173818083955937</v>
+        <v>1.092212431567618</v>
       </c>
       <c r="P11">
-        <v>1.183872795778254</v>
+        <v>1.1027951092365</v>
       </c>
       <c r="Q11">
-        <v>28.10148722844885</v>
+        <v>29.1695913705064</v>
       </c>
       <c r="R11">
-        <v>-92.14592116976226</v>
+        <v>-91.06836227712306</v>
       </c>
       <c r="S11">
-        <v>149.1732567737346</v>
+        <v>150.3378820686666</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4233,22 +4233,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.154835964253564</v>
+        <v>1.136556552814618</v>
       </c>
       <c r="O12">
-        <v>1.126280528610616</v>
+        <v>1.108007397789268</v>
       </c>
       <c r="P12">
-        <v>1.13673436718701</v>
+        <v>1.118447890064759</v>
       </c>
       <c r="Q12">
-        <v>28.9123643414672</v>
+        <v>28.88010267089726</v>
       </c>
       <c r="R12">
-        <v>-91.32494543106951</v>
+        <v>-91.36192358732048</v>
       </c>
       <c r="S12">
-        <v>150.0417693579343</v>
+        <v>150.0273093263206</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4292,22 +4292,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.139067756137077</v>
+        <v>1.120785339036983</v>
       </c>
       <c r="O13">
-        <v>1.110488993494702</v>
+        <v>1.092212432233998</v>
       </c>
       <c r="P13">
-        <v>1.12108285208162</v>
+        <v>1.102795109033947</v>
       </c>
       <c r="Q13">
-        <v>29.19765368991982</v>
+        <v>29.16959139686315</v>
       </c>
       <c r="R13">
-        <v>-91.03568928593481</v>
+        <v>-91.0683623144641</v>
       </c>
       <c r="S13">
-        <v>150.3474779204091</v>
+        <v>150.3378820812162</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4351,22 +4351,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.139067755992738</v>
+        <v>1.120785338928113</v>
       </c>
       <c r="O14">
-        <v>1.110488993390682</v>
+        <v>1.092212432165062</v>
       </c>
       <c r="P14">
-        <v>1.121082852065613</v>
+        <v>1.1027951090549</v>
       </c>
       <c r="Q14">
-        <v>29.19765368338931</v>
+        <v>29.1695913941366</v>
       </c>
       <c r="R14">
-        <v>-91.03568928608959</v>
+        <v>-91.06836231060122</v>
       </c>
       <c r="S14">
-        <v>150.347477915257</v>
+        <v>150.337882079918</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4410,22 +4410,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.15483596376147</v>
+        <v>1.120785338855534</v>
       </c>
       <c r="O15">
-        <v>1.126280528184191</v>
+        <v>1.092212432119105</v>
       </c>
       <c r="P15">
-        <v>1.13673436691094</v>
+        <v>1.10279510906887</v>
       </c>
       <c r="Q15">
-        <v>28.91236433639199</v>
+        <v>29.16959139231889</v>
       </c>
       <c r="R15">
-        <v>-91.32494542555708</v>
+        <v>-91.06836230802598</v>
       </c>
       <c r="S15">
-        <v>150.0417693555192</v>
+        <v>150.3378820790525</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4469,22 +4469,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.154835964320109</v>
+        <v>1.136556552869457</v>
       </c>
       <c r="O16">
-        <v>1.126280528663859</v>
+        <v>1.108007397830936</v>
       </c>
       <c r="P16">
-        <v>1.136734367211163</v>
+        <v>1.118447890076721</v>
       </c>
       <c r="Q16">
-        <v>28.91236434450937</v>
+        <v>28.88010267270066</v>
       </c>
       <c r="R16">
-        <v>-91.32494543010021</v>
+        <v>-91.36192358765851</v>
       </c>
       <c r="S16">
-        <v>150.041769360508</v>
+        <v>150.0273093276385</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4528,22 +4528,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.13906775618519</v>
+        <v>1.120785339073273</v>
       </c>
       <c r="O17">
-        <v>1.110488993529376</v>
+        <v>1.092212432256977</v>
       </c>
       <c r="P17">
-        <v>1.121082852086956</v>
+        <v>1.102795109026962</v>
       </c>
       <c r="Q17">
-        <v>29.19765369209666</v>
+        <v>29.169591397772</v>
       </c>
       <c r="R17">
-        <v>-91.03568928588321</v>
+        <v>-91.06836231575173</v>
       </c>
       <c r="S17">
-        <v>150.3474779221265</v>
+        <v>150.337882081649</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4587,22 +4587,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.139067755752174</v>
+        <v>1.120785338746664</v>
       </c>
       <c r="O18">
-        <v>1.110488993217315</v>
+        <v>1.092212432050169</v>
       </c>
       <c r="P18">
-        <v>1.121082852038935</v>
+        <v>1.102795109089824</v>
       </c>
       <c r="Q18">
-        <v>29.19765367250513</v>
+        <v>29.16959138959233</v>
       </c>
       <c r="R18">
-        <v>-91.03568928634759</v>
+        <v>-91.06836230416312</v>
       </c>
       <c r="S18">
-        <v>150.3474779066702</v>
+        <v>150.3378820777542</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4646,22 +4646,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.139067755559722</v>
+        <v>1.120785338601506</v>
       </c>
       <c r="O19">
-        <v>1.110488993078621</v>
+        <v>1.092212431958255</v>
       </c>
       <c r="P19">
-        <v>1.121082852017592</v>
+        <v>1.102795109117762</v>
       </c>
       <c r="Q19">
-        <v>29.19765366379778</v>
+        <v>29.16959138595691</v>
       </c>
       <c r="R19">
-        <v>-91.03568928655397</v>
+        <v>-91.06836229901263</v>
       </c>
       <c r="S19">
-        <v>150.3474778998007</v>
+        <v>150.3378820760233</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4705,22 +4705,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.139067755415383</v>
+        <v>1.120785338492636</v>
       </c>
       <c r="O20">
-        <v>1.1104889929746</v>
+        <v>1.092212431889319</v>
       </c>
       <c r="P20">
-        <v>1.121082852001585</v>
+        <v>1.102795109138716</v>
       </c>
       <c r="Q20">
-        <v>29.19765365726727</v>
+        <v>29.16959138323035</v>
       </c>
       <c r="R20">
-        <v>-91.03568928670877</v>
+        <v>-91.06836229514975</v>
       </c>
       <c r="S20">
-        <v>150.3474778946486</v>
+        <v>150.337882074725</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -4764,22 +4764,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.13906775536727</v>
+        <v>1.120785338456346</v>
       </c>
       <c r="O21">
-        <v>1.110488992939927</v>
+        <v>1.09221243186634</v>
       </c>
       <c r="P21">
-        <v>1.12108285199625</v>
+        <v>1.102795109145701</v>
       </c>
       <c r="Q21">
-        <v>29.19765365509043</v>
+        <v>29.16959138232151</v>
       </c>
       <c r="R21">
-        <v>-91.03568928676037</v>
+        <v>-91.06836229386214</v>
       </c>
       <c r="S21">
-        <v>150.3474778929312</v>
+        <v>150.3378820742923</v>
       </c>
     </row>
   </sheetData>
@@ -9867,7 +9867,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.74888661712608</v>
+        <v>57.74195840557901</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.4133523379892</v>
+        <v>333.3733522899722</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -9897,28 +9897,28 @@
         <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110947</v>
+        <v>0.01094540894378729</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248826</v>
+        <v>0.1094540869961654</v>
       </c>
       <c r="N2">
-        <v>0.6352377304146849</v>
+        <v>0.6351615201912304</v>
       </c>
       <c r="O2">
-        <v>1.100264023311572</v>
+        <v>1.100132023599369</v>
       </c>
       <c r="P2">
-        <v>0.6352377299454836</v>
+        <v>0.6351615199027028</v>
       </c>
       <c r="Q2">
-        <v>59.99999997129611</v>
+        <v>59.99999998595689</v>
       </c>
       <c r="R2">
-        <v>-90.00000001881082</v>
+        <v>-90.00000000940359</v>
       </c>
       <c r="S2">
-        <v>120.0000000155011</v>
+        <v>120.0000000102481</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.665750320966479</v>
+        <v>0.6503658022503693</v>
       </c>
       <c r="O3">
-        <v>1.134925870002791</v>
+        <v>1.117462912749492</v>
       </c>
       <c r="P3">
-        <v>0.6652128668459999</v>
+        <v>0.6500907891747356</v>
       </c>
       <c r="Q3">
-        <v>58.55026579359607</v>
+        <v>59.25804482749845</v>
       </c>
       <c r="R3">
-        <v>-89.9715845921978</v>
+        <v>-89.98557026784162</v>
       </c>
       <c r="S3">
-        <v>121.5349126462734</v>
+        <v>120.7852396416106</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10021,22 +10021,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6657503386261006</v>
+        <v>0.6503658203359309</v>
       </c>
       <c r="O4">
-        <v>1.134925869560824</v>
+        <v>1.117462912528621</v>
       </c>
       <c r="P4">
-        <v>0.6652128570913777</v>
+        <v>0.6500907791975892</v>
       </c>
       <c r="Q4">
-        <v>58.55026587819414</v>
+        <v>59.25804492070058</v>
       </c>
       <c r="R4">
-        <v>-89.97158463862139</v>
+        <v>-89.98557029141892</v>
       </c>
       <c r="S4">
-        <v>121.5349139152618</v>
+        <v>120.7852409734658</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10080,22 +10080,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6880474122076975</v>
+        <v>0.6503658165284428</v>
       </c>
       <c r="O5">
-        <v>1.166324814587775</v>
+        <v>1.11746291257512</v>
       </c>
       <c r="P5">
-        <v>0.6984725051784152</v>
+        <v>0.6500907812980413</v>
       </c>
       <c r="Q5">
-        <v>56.42893516775262</v>
+        <v>59.25804490107917</v>
       </c>
       <c r="R5">
-        <v>-90.55893444456449</v>
+        <v>-89.98557028645526</v>
       </c>
       <c r="S5">
-        <v>121.8993143501981</v>
+        <v>120.7852406930751</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10139,22 +10139,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6995326071207686</v>
+        <v>0.6503658222396723</v>
       </c>
       <c r="O6">
-        <v>1.182068416402463</v>
+        <v>1.117462912505372</v>
       </c>
       <c r="P6">
-        <v>0.7151121807489991</v>
+        <v>0.6500907781473636</v>
       </c>
       <c r="Q6">
-        <v>55.41967060259922</v>
+        <v>59.25804493051147</v>
       </c>
       <c r="R6">
-        <v>-90.84089339675826</v>
+        <v>-89.98557029390069</v>
       </c>
       <c r="S6">
-        <v>122.0688005518892</v>
+        <v>120.785241113661</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -10198,22 +10198,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7112278089130255</v>
+        <v>0.6503658269990302</v>
       </c>
       <c r="O7">
-        <v>1.197839891958341</v>
+        <v>1.117462912447248</v>
       </c>
       <c r="P7">
-        <v>0.7317578296911459</v>
+        <v>0.6500907755217987</v>
       </c>
       <c r="Q7">
-        <v>54.44330330488114</v>
+        <v>59.25804495503838</v>
       </c>
       <c r="R7">
-        <v>-91.11543396773234</v>
+        <v>-89.98557030010522</v>
       </c>
       <c r="S7">
-        <v>122.2305772916962</v>
+        <v>120.7852414641492</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -10257,22 +10257,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7231228257296776</v>
+        <v>0.6503658279509017</v>
       </c>
       <c r="O8">
-        <v>1.213638154890074</v>
+        <v>1.117462912435623</v>
       </c>
       <c r="P8">
-        <v>0.7484090550856102</v>
+        <v>0.6500907749966857</v>
       </c>
       <c r="Q8">
-        <v>53.49879065101231</v>
+        <v>59.25804495994376</v>
       </c>
       <c r="R8">
-        <v>-91.38283298231593</v>
+        <v>-89.98557030134613</v>
       </c>
       <c r="S8">
-        <v>122.3851563232632</v>
+        <v>120.7852415342468</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -10316,22 +10316,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7112278113891065</v>
+        <v>0.6503658298546448</v>
       </c>
       <c r="O9">
-        <v>1.197839891667786</v>
+        <v>1.117462912412373</v>
       </c>
       <c r="P9">
-        <v>0.7317578280752658</v>
+        <v>0.65009077394646</v>
       </c>
       <c r="Q9">
-        <v>54.44330332568172</v>
+        <v>59.25804496975454</v>
       </c>
       <c r="R9">
-        <v>-91.11543398496566</v>
+        <v>-89.98557030382794</v>
       </c>
       <c r="S9">
-        <v>122.2305774524795</v>
+        <v>120.7852416744421</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -10375,22 +10375,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7112278130398272</v>
+        <v>0.6503658317583877</v>
       </c>
       <c r="O10">
-        <v>1.197839891474083</v>
+        <v>1.117462912389124</v>
       </c>
       <c r="P10">
-        <v>0.7317578269980124</v>
+        <v>0.650090772896234</v>
       </c>
       <c r="Q10">
-        <v>54.44330333954878</v>
+        <v>59.25804497956533</v>
       </c>
       <c r="R10">
-        <v>-91.11543399645453</v>
+        <v>-89.98557030630975</v>
       </c>
       <c r="S10">
-        <v>122.2305775596684</v>
+        <v>120.7852418146373</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7112278138651873</v>
+        <v>0.6503658327102593</v>
       </c>
       <c r="O11">
-        <v>1.197839891377231</v>
+        <v>1.117462912377499</v>
       </c>
       <c r="P11">
-        <v>0.7317578264593855</v>
+        <v>0.6500907723711207</v>
       </c>
       <c r="Q11">
-        <v>54.44330334648232</v>
+        <v>59.25804498447075</v>
       </c>
       <c r="R11">
-        <v>-91.11543400219895</v>
+        <v>-89.98557030755066</v>
       </c>
       <c r="S11">
-        <v>122.2305776132628</v>
+        <v>120.7852418847349</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -10493,22 +10493,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6767829114240382</v>
+        <v>0.6612456636008999</v>
       </c>
       <c r="O12">
-        <v>1.150610231035027</v>
+        <v>1.133148951693622</v>
       </c>
       <c r="P12">
-        <v>0.6818392430946197</v>
+        <v>0.6666875231576822</v>
       </c>
       <c r="Q12">
-        <v>57.47212924887923</v>
+        <v>58.14297386196298</v>
       </c>
       <c r="R12">
-        <v>-90.26926653645235</v>
+        <v>-90.28764598464409</v>
       </c>
       <c r="S12">
-        <v>121.72155701163</v>
+        <v>120.9948009776378</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -10552,22 +10552,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6657503237548399</v>
+        <v>0.650365805105984</v>
       </c>
       <c r="O13">
-        <v>1.134925869933007</v>
+        <v>1.117462912714618</v>
       </c>
       <c r="P13">
-        <v>0.6652128653057958</v>
+        <v>0.6500907875993961</v>
       </c>
       <c r="Q13">
-        <v>58.55026580695375</v>
+        <v>59.25804484221467</v>
       </c>
       <c r="R13">
-        <v>-89.97158459952783</v>
+        <v>-89.98557027156434</v>
       </c>
       <c r="S13">
-        <v>121.53491284664</v>
+        <v>120.7852398519035</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -10611,22 +10611,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6657503265432015</v>
+        <v>0.6503658079615993</v>
       </c>
       <c r="O14">
-        <v>1.134925869863223</v>
+        <v>1.117462912679743</v>
       </c>
       <c r="P14">
-        <v>0.6652128637655931</v>
+        <v>0.6500907860240579</v>
       </c>
       <c r="Q14">
-        <v>58.55026582031122</v>
+        <v>59.25804485693068</v>
       </c>
       <c r="R14">
-        <v>-89.97158460685789</v>
+        <v>-89.98557027528709</v>
       </c>
       <c r="S14">
-        <v>121.5349130470066</v>
+        <v>120.7852400621965</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -10670,22 +10670,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6767829158988471</v>
+        <v>0.6503658098653418</v>
       </c>
       <c r="O15">
-        <v>1.150610230669053</v>
+        <v>1.117462912656494</v>
       </c>
       <c r="P15">
-        <v>0.6818392402628963</v>
+        <v>0.650090784973832</v>
       </c>
       <c r="Q15">
-        <v>57.47212929697498</v>
+        <v>59.25804486674151</v>
       </c>
       <c r="R15">
-        <v>-90.26926654261217</v>
+        <v>-89.98557027776889</v>
       </c>
       <c r="S15">
-        <v>121.7215573370482</v>
+        <v>120.7852402023917</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -10729,22 +10729,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6767829105206127</v>
+        <v>0.6612456626752591</v>
       </c>
       <c r="O16">
-        <v>1.150610231076937</v>
+        <v>1.133148951724015</v>
       </c>
       <c r="P16">
-        <v>0.6818392436139461</v>
+        <v>0.666687523688027</v>
       </c>
       <c r="Q16">
-        <v>57.47212924358836</v>
+        <v>58.14297385609109</v>
       </c>
       <c r="R16">
-        <v>-90.26926653316323</v>
+        <v>-90.28764598253044</v>
       </c>
       <c r="S16">
-        <v>121.7215569483762</v>
+        <v>120.9948009112228</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -10788,22 +10788,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6657503228253863</v>
+        <v>0.6503658041541124</v>
       </c>
       <c r="O17">
-        <v>1.134925869956268</v>
+        <v>1.117462912726243</v>
       </c>
       <c r="P17">
-        <v>0.6652128658191973</v>
+        <v>0.6500907881245094</v>
       </c>
       <c r="Q17">
-        <v>58.55026580250119</v>
+        <v>59.25804483730926</v>
       </c>
       <c r="R17">
-        <v>-89.97158459708449</v>
+        <v>-89.98557027032344</v>
       </c>
       <c r="S17">
-        <v>121.5349127798511</v>
+        <v>120.7852397818059</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -10847,22 +10847,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6657503311904704</v>
+        <v>0.6503658127209576</v>
       </c>
       <c r="O18">
-        <v>1.134925869746915</v>
+        <v>1.117462912621619</v>
       </c>
       <c r="P18">
-        <v>0.6652128611985875</v>
+        <v>0.6500907833984934</v>
       </c>
       <c r="Q18">
-        <v>58.55026584257386</v>
+        <v>59.25804488145753</v>
       </c>
       <c r="R18">
-        <v>-89.97158461907462</v>
+        <v>-89.98557028149163</v>
       </c>
       <c r="S18">
-        <v>121.5349133809509</v>
+        <v>120.7852404126847</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -10906,22 +10906,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6657503349082855</v>
+        <v>0.6503658165284443</v>
       </c>
       <c r="O19">
-        <v>1.13492586965387</v>
+        <v>1.11746291257512</v>
       </c>
       <c r="P19">
-        <v>0.6652128591449827</v>
+        <v>0.6500907812980417</v>
       </c>
       <c r="Q19">
-        <v>58.55026586038399</v>
+        <v>59.25804490107902</v>
       </c>
       <c r="R19">
-        <v>-89.97158462884801</v>
+        <v>-89.98557028645527</v>
       </c>
       <c r="S19">
-        <v>121.5349136481063</v>
+        <v>120.7852406930753</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -10965,22 +10965,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6657503376966468</v>
+        <v>0.6503658193840592</v>
       </c>
       <c r="O20">
-        <v>1.134925869584085</v>
+        <v>1.117462912540246</v>
       </c>
       <c r="P20">
-        <v>0.6652128576047791</v>
+        <v>0.6500907797227025</v>
       </c>
       <c r="Q20">
-        <v>58.55026587374158</v>
+        <v>59.25804491579515</v>
       </c>
       <c r="R20">
-        <v>-89.97158463617805</v>
+        <v>-89.98557029017802</v>
       </c>
       <c r="S20">
-        <v>121.5349138484729</v>
+        <v>120.7852409033682</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -11024,22 +11024,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6657503386261004</v>
+        <v>0.6503658203359309</v>
       </c>
       <c r="O21">
-        <v>1.134925869560824</v>
+        <v>1.117462912528621</v>
       </c>
       <c r="P21">
-        <v>0.6652128570913778</v>
+        <v>0.6500907791975895</v>
       </c>
       <c r="Q21">
-        <v>58.55026587819413</v>
+        <v>59.25804492070055</v>
       </c>
       <c r="R21">
-        <v>-89.97158463862139</v>
+        <v>-89.98557029141892</v>
       </c>
       <c r="S21">
-        <v>121.5349139152618</v>
+        <v>120.7852409734658</v>
       </c>
     </row>
   </sheetData>
@@ -11119,7 +11119,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.74888661712442</v>
+        <v>57.7419584055782</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11128,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.4133523379796</v>
+        <v>333.3733522899674</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11146,31 +11146,31 @@
         <v>0.01094540888868898</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674546</v>
+        <v>0.1094540870674545</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110945</v>
+        <v>0.01094540894378727</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248826</v>
+        <v>0.1094540869961655</v>
       </c>
       <c r="N2">
-        <v>0.6352377304146664</v>
+        <v>0.635161520191221</v>
       </c>
       <c r="O2">
-        <v>1.10026402331154</v>
+        <v>1.100132023599353</v>
       </c>
       <c r="P2">
-        <v>0.635237729945465</v>
+        <v>0.6351615199026934</v>
       </c>
       <c r="Q2">
-        <v>59.99999997129613</v>
+        <v>59.9999999859569</v>
       </c>
       <c r="R2">
-        <v>-90.00000001881082</v>
+        <v>-90.00000000940359</v>
       </c>
       <c r="S2">
-        <v>120.0000000155011</v>
+        <v>120.0000000102481</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -11214,22 +11214,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6672134230518684</v>
+        <v>0.6510924694185865</v>
       </c>
       <c r="O3">
-        <v>1.1365764408669</v>
+        <v>1.118288194922213</v>
       </c>
       <c r="P3">
-        <v>0.6666516005512048</v>
+        <v>0.6508046792100457</v>
       </c>
       <c r="Q3">
-        <v>58.48454627922774</v>
+        <v>59.22357907554198</v>
       </c>
       <c r="R3">
-        <v>-89.97027470731545</v>
+        <v>-89.984894293333</v>
       </c>
       <c r="S3">
-        <v>121.6045512223417</v>
+        <v>120.8217320781087</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -11273,22 +11273,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6672134406712824</v>
+        <v>0.6510924874837927</v>
       </c>
       <c r="O4">
-        <v>1.136576440404028</v>
+        <v>1.1182881946909</v>
       </c>
       <c r="P4">
-        <v>0.6666515908168191</v>
+        <v>0.6508046692440161</v>
       </c>
       <c r="Q4">
-        <v>58.48454636295296</v>
+        <v>59.22357916837635</v>
       </c>
       <c r="R4">
-        <v>-89.97027475586195</v>
+        <v>-89.98489431800624</v>
       </c>
       <c r="S4">
-        <v>121.6045524854701</v>
+        <v>120.8217334069436</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -11332,22 +11332,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6895377676487674</v>
+        <v>0.651092483680591</v>
       </c>
       <c r="O5">
-        <v>1.167975032853324</v>
+        <v>1.118288194739598</v>
       </c>
       <c r="P5">
-        <v>0.6999163290867344</v>
+        <v>0.6508046713421282</v>
       </c>
       <c r="Q5">
-        <v>56.36988574751091</v>
+        <v>59.22357914883228</v>
       </c>
       <c r="R5">
-        <v>-90.55682981731672</v>
+        <v>-89.98489431281185</v>
       </c>
       <c r="S5">
-        <v>121.9648930950512</v>
+        <v>120.8217331271889</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -11391,22 +11391,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7010352164913404</v>
+        <v>0.6510924893853929</v>
       </c>
       <c r="O6">
-        <v>1.183718403870768</v>
+        <v>1.118288194666552</v>
       </c>
       <c r="P6">
-        <v>0.7165583526508917</v>
+        <v>0.650804668194961</v>
       </c>
       <c r="Q6">
-        <v>55.36374363812422</v>
+        <v>59.22357917814843</v>
       </c>
       <c r="R6">
-        <v>-90.83842370927263</v>
+        <v>-89.98489432060337</v>
       </c>
       <c r="S6">
-        <v>122.1325145579955</v>
+        <v>120.821733546821</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -11450,22 +11450,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7127418307317783</v>
+        <v>0.6510924941393944</v>
       </c>
       <c r="O7">
-        <v>1.199489616351985</v>
+        <v>1.118288194605681</v>
       </c>
       <c r="P7">
-        <v>0.733206231205648</v>
+        <v>0.6508046655723216</v>
       </c>
       <c r="Q7">
-        <v>54.39036074616535</v>
+        <v>59.22357920257853</v>
       </c>
       <c r="R7">
-        <v>-91.11261913046897</v>
+        <v>-89.98489432709633</v>
       </c>
       <c r="S7">
-        <v>122.2925253963693</v>
+        <v>120.8217338965143</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -11509,22 +11509,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7246474708188977</v>
+        <v>0.6510924950901947</v>
       </c>
       <c r="O8">
-        <v>1.215287586684392</v>
+        <v>1.118288194593506</v>
       </c>
       <c r="P8">
-        <v>0.7498595764316613</v>
+        <v>0.6508046650477936</v>
       </c>
       <c r="Q8">
-        <v>53.4486978978054</v>
+        <v>59.22357920746457</v>
       </c>
       <c r="R8">
-        <v>-91.3796917792003</v>
+        <v>-89.98489432839492</v>
       </c>
       <c r="S8">
-        <v>122.4454299360804</v>
+        <v>120.821733966453</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -11568,22 +11568,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7127418332017853</v>
+        <v>0.6510924969917953</v>
       </c>
       <c r="O9">
-        <v>1.199489616058252</v>
+        <v>1.118288194569158</v>
       </c>
       <c r="P9">
-        <v>0.7332062295922646</v>
+        <v>0.6508046639987379</v>
       </c>
       <c r="Q9">
-        <v>54.39036076671246</v>
+        <v>59.22357921723663</v>
       </c>
       <c r="R9">
-        <v>-91.11261914800876</v>
+        <v>-89.98489433099209</v>
       </c>
       <c r="S9">
-        <v>122.2925255563768</v>
+        <v>120.8217341063304</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -11627,22 +11627,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7127418348484568</v>
+        <v>0.6510924988933957</v>
       </c>
       <c r="O10">
-        <v>1.199489615862431</v>
+        <v>1.118288194544809</v>
       </c>
       <c r="P10">
-        <v>0.7332062285166754</v>
+        <v>0.6508046629496822</v>
       </c>
       <c r="Q10">
-        <v>54.39036078041057</v>
+        <v>59.22357922700869</v>
       </c>
       <c r="R10">
-        <v>-91.11261915970195</v>
+        <v>-89.98489433358927</v>
       </c>
       <c r="S10">
-        <v>122.2925256630485</v>
+        <v>120.8217342462077</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -11686,22 +11686,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7127418356717923</v>
+        <v>0.651092499844196</v>
       </c>
       <c r="O11">
-        <v>1.19948961576452</v>
+        <v>1.118288194532635</v>
       </c>
       <c r="P11">
-        <v>0.7332062279788805</v>
+        <v>0.6508046624251541</v>
       </c>
       <c r="Q11">
-        <v>54.39036078725962</v>
+        <v>59.22357923189475</v>
       </c>
       <c r="R11">
-        <v>-91.11261916554855</v>
+        <v>-89.98489433488784</v>
       </c>
       <c r="S11">
-        <v>122.2925257163844</v>
+        <v>120.8217343161464</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -11745,22 +11745,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6782601167678357</v>
+        <v>0.6619798048490737</v>
       </c>
       <c r="O12">
-        <v>1.152260644847226</v>
+        <v>1.133974152902311</v>
       </c>
       <c r="P12">
-        <v>0.6832805911124642</v>
+        <v>0.6674029195819043</v>
       </c>
       <c r="Q12">
-        <v>57.40981640045952</v>
+        <v>58.11030513417435</v>
       </c>
       <c r="R12">
-        <v>-90.26754808155906</v>
+        <v>-90.2867595257935</v>
       </c>
       <c r="S12">
-        <v>121.7891075662728</v>
+        <v>121.0301614984946</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -11804,22 +11804,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6672134258338807</v>
+        <v>0.651092472270987</v>
       </c>
       <c r="O13">
-        <v>1.136576440793815</v>
+        <v>1.11828819488569</v>
       </c>
       <c r="P13">
-        <v>0.6666515990141961</v>
+        <v>0.6508046776364617</v>
       </c>
       <c r="Q13">
-        <v>58.48454629244758</v>
+        <v>59.22357909020013</v>
       </c>
       <c r="R13">
-        <v>-89.97027471498069</v>
+        <v>-89.98489429722875</v>
       </c>
       <c r="S13">
-        <v>121.604551421783</v>
+        <v>120.8217322879247</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -11863,22 +11863,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6672134286158937</v>
+        <v>0.6510924751233882</v>
       </c>
       <c r="O14">
-        <v>1.13657644072073</v>
+        <v>1.118288194849167</v>
       </c>
       <c r="P14">
-        <v>0.6666515974771883</v>
+        <v>0.6508046760628786</v>
       </c>
       <c r="Q14">
-        <v>58.48454630566728</v>
+        <v>59.22357910485809</v>
       </c>
       <c r="R14">
-        <v>-89.97027472264594</v>
+        <v>-89.98489430112454</v>
       </c>
       <c r="S14">
-        <v>121.6045516212243</v>
+        <v>120.8217324977408</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -11922,22 +11922,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6782601212318845</v>
+        <v>0.6510924770249888</v>
       </c>
       <c r="O15">
-        <v>1.152260644475813</v>
+        <v>1.118288194824818</v>
       </c>
       <c r="P15">
-        <v>0.683280588285879</v>
+        <v>0.6508046750138231</v>
       </c>
       <c r="Q15">
-        <v>57.40981644821719</v>
+        <v>59.22357911463013</v>
       </c>
       <c r="R15">
-        <v>-90.26754808827961</v>
+        <v>-89.9848943037217</v>
       </c>
       <c r="S15">
-        <v>121.7891078902213</v>
+        <v>120.8217326376181</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -11981,22 +11981,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6782601158665066</v>
+        <v>0.6619798039244948</v>
       </c>
       <c r="O16">
-        <v>1.152260644890227</v>
+        <v>1.133974152933248</v>
       </c>
       <c r="P16">
-        <v>0.6832805916307888</v>
+        <v>0.6674029201116981</v>
       </c>
       <c r="Q16">
-        <v>57.40981639522604</v>
+        <v>58.11030512832825</v>
       </c>
       <c r="R16">
-        <v>-90.2675480781607</v>
+        <v>-90.28675952362346</v>
       </c>
       <c r="S16">
-        <v>121.7891075033138</v>
+        <v>121.0301614322315</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -12040,22 +12040,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6672134249065431</v>
+        <v>0.6510924713201869</v>
       </c>
       <c r="O17">
-        <v>1.136576440818176</v>
+        <v>1.118288194897864</v>
       </c>
       <c r="P17">
-        <v>0.6666515995265324</v>
+        <v>0.6508046781609899</v>
       </c>
       <c r="Q17">
-        <v>58.48454628804096</v>
+        <v>59.22357908531406</v>
       </c>
       <c r="R17">
-        <v>-89.97027471242559</v>
+        <v>-89.98489429593018</v>
       </c>
       <c r="S17">
-        <v>121.6045513553026</v>
+        <v>120.821732217986</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -12099,22 +12099,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6672134332525816</v>
+        <v>0.6510924798773899</v>
       </c>
       <c r="O18">
-        <v>1.136576440598921</v>
+        <v>1.118288194788295</v>
       </c>
       <c r="P18">
-        <v>0.6666515949155081</v>
+        <v>0.6508046734402394</v>
       </c>
       <c r="Q18">
-        <v>58.48454632770023</v>
+        <v>59.22357912928818</v>
       </c>
       <c r="R18">
-        <v>-89.97027473542131</v>
+        <v>-89.98489430761749</v>
       </c>
       <c r="S18">
-        <v>121.6045519536266</v>
+        <v>120.8217328474341</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -12158,22 +12158,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.667213436961932</v>
+        <v>0.6510924836805912</v>
       </c>
       <c r="O19">
-        <v>1.136576440501475</v>
+        <v>1.118288194739598</v>
       </c>
       <c r="P19">
-        <v>0.6666515928661636</v>
+        <v>0.6508046713421278</v>
       </c>
       <c r="Q19">
-        <v>58.48454634532658</v>
+        <v>59.22357914883226</v>
       </c>
       <c r="R19">
-        <v>-89.97027474564163</v>
+        <v>-89.98489431281187</v>
       </c>
       <c r="S19">
-        <v>121.6045522195484</v>
+        <v>120.8217331271889</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -12217,22 +12217,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.667213439743945</v>
+        <v>0.6510924865329923</v>
       </c>
       <c r="O20">
-        <v>1.13657644042839</v>
+        <v>1.118288194703075</v>
       </c>
       <c r="P20">
-        <v>0.6666515913291553</v>
+        <v>0.650804669768544</v>
       </c>
       <c r="Q20">
-        <v>58.48454635854634</v>
+        <v>59.22357916349029</v>
       </c>
       <c r="R20">
-        <v>-89.97027475330688</v>
+        <v>-89.98489431670765</v>
       </c>
       <c r="S20">
-        <v>121.6045524189897</v>
+        <v>120.8217333370049</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -12276,22 +12276,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6672134406712824</v>
+        <v>0.6510924874837926</v>
       </c>
       <c r="O21">
-        <v>1.136576440404028</v>
+        <v>1.1182881946909</v>
       </c>
       <c r="P21">
-        <v>0.6666515908168192</v>
+        <v>0.6508046692440161</v>
       </c>
       <c r="Q21">
-        <v>58.48454636295295</v>
+        <v>59.22357916837633</v>
       </c>
       <c r="R21">
-        <v>-89.97027475586195</v>
+        <v>-89.98489431800624</v>
       </c>
       <c r="S21">
-        <v>121.6045524854701</v>
+        <v>120.8217334069436</v>
       </c>
     </row>
   </sheetData>
@@ -12371,7 +12371,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.8876322120230064</v>
+        <v>0.8875257217708372</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -12380,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.124746965528658</v>
+        <v>5.124132143771098</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -12401,28 +12401,28 @@
         <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110947</v>
+        <v>0.01094540894378729</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248826</v>
+        <v>0.1094540869961654</v>
       </c>
       <c r="N2">
-        <v>1.090614241419318</v>
+        <v>1.090483399177556</v>
       </c>
       <c r="O2">
-        <v>1.100264023709055</v>
+        <v>1.100132023776953</v>
       </c>
       <c r="P2">
-        <v>1.096760037209141</v>
+        <v>1.096628457656647</v>
       </c>
       <c r="Q2">
-        <v>29.92212960019689</v>
+        <v>29.92212960012764</v>
       </c>
       <c r="R2">
-        <v>-90.00000000044361</v>
+        <v>-90.00000000021998</v>
       </c>
       <c r="S2">
-        <v>149.5246566649197</v>
+        <v>149.5246566647693</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -12466,22 +12466,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.125275375101853</v>
+        <v>1.107813925472513</v>
       </c>
       <c r="O3">
-        <v>1.134925927409286</v>
+        <v>1.11746294142236</v>
       </c>
       <c r="P3">
-        <v>1.131416257173981</v>
+        <v>1.113956489000606</v>
       </c>
       <c r="Q3">
-        <v>29.95318982621157</v>
+        <v>29.93790450715325</v>
       </c>
       <c r="R3">
-        <v>-89.97158219062574</v>
+        <v>-89.98556904807707</v>
       </c>
       <c r="S3">
-        <v>149.5677240742669</v>
+        <v>149.5465278832024</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -12525,22 +12525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.125275374748211</v>
+        <v>1.107813925339291</v>
       </c>
       <c r="O4">
-        <v>1.134925926967318</v>
+        <v>1.117462941201489</v>
       </c>
       <c r="P4">
-        <v>1.131416256546385</v>
+        <v>1.113956488590406</v>
       </c>
       <c r="Q4">
-        <v>29.95318979318729</v>
+        <v>29.93790449739982</v>
       </c>
       <c r="R4">
-        <v>-89.97158223704943</v>
+        <v>-89.98556907165441</v>
       </c>
       <c r="S4">
-        <v>149.5677240381519</v>
+        <v>149.5465278702516</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -12584,22 +12584,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.15669014561003</v>
+        <v>1.107813925367338</v>
       </c>
       <c r="O5">
-        <v>1.166324939448941</v>
+        <v>1.117462941247988</v>
       </c>
       <c r="P5">
-        <v>1.162908001436416</v>
+        <v>1.113956488676764</v>
       </c>
       <c r="Q5">
-        <v>29.36298727630956</v>
+        <v>29.93790449945317</v>
       </c>
       <c r="R5">
-        <v>-90.55893096617416</v>
+        <v>-89.98556906669076</v>
       </c>
       <c r="S5">
-        <v>148.991083753304</v>
+        <v>149.5465278729781</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -12643,22 +12643,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.172441705993057</v>
+        <v>1.107813925325267</v>
       </c>
       <c r="O6">
-        <v>1.182068574830196</v>
+        <v>1.117462941178239</v>
       </c>
       <c r="P6">
-        <v>1.178696273679221</v>
+        <v>1.113956488547228</v>
       </c>
       <c r="Q6">
-        <v>29.07976153433086</v>
+        <v>29.93790449637314</v>
       </c>
       <c r="R6">
-        <v>-90.84088937792423</v>
+        <v>-89.98556907413624</v>
       </c>
       <c r="S6">
-        <v>148.7143323289911</v>
+        <v>149.5465278688884</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -12702,22 +12702,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.188221155608189</v>
+        <v>1.107813925290209</v>
       </c>
       <c r="O7">
-        <v>1.197840083848041</v>
+        <v>1.117462941120115</v>
       </c>
       <c r="P7">
-        <v>1.194511318914216</v>
+        <v>1.11395648843928</v>
       </c>
       <c r="Q7">
-        <v>28.80405162267769</v>
+        <v>29.93790449380645</v>
       </c>
       <c r="R7">
-        <v>-91.11542940808444</v>
+        <v>-89.98556908034081</v>
       </c>
       <c r="S7">
-        <v>148.44490300668</v>
+        <v>149.5465278654803</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -12761,22 +12761,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.204027398240031</v>
+        <v>1.107813925283197</v>
       </c>
       <c r="O8">
-        <v>1.213638380139116</v>
+        <v>1.11746294110849</v>
       </c>
       <c r="P8">
-        <v>1.210352087993286</v>
+        <v>1.113956488417691</v>
       </c>
       <c r="Q8">
-        <v>28.53557458403618</v>
+        <v>29.93790449329311</v>
       </c>
       <c r="R8">
-        <v>-91.38282788213185</v>
+        <v>-89.98556908158172</v>
       </c>
       <c r="S8">
-        <v>148.1825204687816</v>
+        <v>149.5465278647987</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -12820,22 +12820,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.188221155331034</v>
+        <v>1.107813925269174</v>
       </c>
       <c r="O9">
-        <v>1.197840083557487</v>
+        <v>1.117462941085241</v>
       </c>
       <c r="P9">
-        <v>1.194511318595311</v>
+        <v>1.113956488374512</v>
       </c>
       <c r="Q9">
-        <v>28.8040516073656</v>
+        <v>29.93790449226643</v>
       </c>
       <c r="R9">
-        <v>-91.11542942531781</v>
+        <v>-89.98556908406356</v>
       </c>
       <c r="S9">
-        <v>148.4449029908531</v>
+        <v>149.5465278634354</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -12879,22 +12879,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.188221155146264</v>
+        <v>1.10781392525515</v>
       </c>
       <c r="O10">
-        <v>1.197840083363783</v>
+        <v>1.117462941061991</v>
       </c>
       <c r="P10">
-        <v>1.194511318382708</v>
+        <v>1.113956488331333</v>
       </c>
       <c r="Q10">
-        <v>28.80405159715752</v>
+        <v>29.93790449123975</v>
       </c>
       <c r="R10">
-        <v>-91.11542943680671</v>
+        <v>-89.98556908654537</v>
       </c>
       <c r="S10">
-        <v>148.4449029803019</v>
+        <v>149.5465278620722</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -12938,22 +12938,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.188221155053878</v>
+        <v>1.107813925248139</v>
       </c>
       <c r="O11">
-        <v>1.197840083266931</v>
+        <v>1.117462941050366</v>
       </c>
       <c r="P11">
-        <v>1.194511318276406</v>
+        <v>1.113956488309744</v>
       </c>
       <c r="Q11">
-        <v>28.8040515920535</v>
+        <v>29.93790449072642</v>
       </c>
       <c r="R11">
-        <v>-91.11542944255118</v>
+        <v>-89.98556908778629</v>
       </c>
       <c r="S11">
-        <v>148.4449029750263</v>
+        <v>149.5465278613906</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -12997,22 +12997,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.140967629851705</v>
+        <v>1.123507988544928</v>
       </c>
       <c r="O12">
-        <v>1.150610322223094</v>
+        <v>1.13314901426251</v>
       </c>
       <c r="P12">
-        <v>1.147147608016998</v>
+        <v>1.129690204189618</v>
       </c>
       <c r="Q12">
-        <v>29.65402599306558</v>
+        <v>29.63430483662173</v>
       </c>
       <c r="R12">
-        <v>-90.26926359741509</v>
+        <v>-90.28764420971324</v>
       </c>
       <c r="S12">
-        <v>149.2754464189734</v>
+        <v>149.2500284559513</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -13056,22 +13056,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.125275375046015</v>
+        <v>1.107813925451478</v>
       </c>
       <c r="O13">
-        <v>1.134925927339502</v>
+        <v>1.117462941387486</v>
       </c>
       <c r="P13">
-        <v>1.131416257074887</v>
+        <v>1.113956488935837</v>
       </c>
       <c r="Q13">
-        <v>29.95318982099721</v>
+        <v>29.93790450561323</v>
       </c>
       <c r="R13">
-        <v>-89.9715821979558</v>
+        <v>-89.9855690517998</v>
       </c>
       <c r="S13">
-        <v>149.5677240685645</v>
+        <v>149.5465278811575</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -13115,22 +13115,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.125275374990176</v>
+        <v>1.107813925430443</v>
       </c>
       <c r="O14">
-        <v>1.134925927269717</v>
+        <v>1.117462941352612</v>
       </c>
       <c r="P14">
-        <v>1.131416256975793</v>
+        <v>1.113956488871069</v>
       </c>
       <c r="Q14">
-        <v>29.95318981578285</v>
+        <v>29.93790450407321</v>
       </c>
       <c r="R14">
-        <v>-89.97158220528586</v>
+        <v>-89.98556905552253</v>
       </c>
       <c r="S14">
-        <v>149.5677240628621</v>
+        <v>149.5465278791127</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -13174,22 +13174,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.140967629508437</v>
+        <v>1.107813925416419</v>
       </c>
       <c r="O15">
-        <v>1.150610321857108</v>
+        <v>1.117462941329362</v>
       </c>
       <c r="P15">
-        <v>1.147147607600927</v>
+        <v>1.11395648882789</v>
       </c>
       <c r="Q15">
-        <v>29.65402599042309</v>
+        <v>29.93790450304654</v>
       </c>
       <c r="R15">
-        <v>-90.26926360357551</v>
+        <v>-89.98556905800437</v>
       </c>
       <c r="S15">
-        <v>149.2754464153956</v>
+        <v>149.5465278777494</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -13233,22 +13233,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.140967629889017</v>
+        <v>1.123507988570758</v>
       </c>
       <c r="O16">
-        <v>1.150610322265005</v>
+        <v>1.133149014292903</v>
       </c>
       <c r="P16">
-        <v>1.147147608068599</v>
+        <v>1.129690204229892</v>
       </c>
       <c r="Q16">
-        <v>29.65402599566639</v>
+        <v>29.63430483802555</v>
       </c>
       <c r="R16">
-        <v>-90.26926359412596</v>
+        <v>-90.28764420759957</v>
       </c>
       <c r="S16">
-        <v>149.2754464217397</v>
+        <v>149.2500284575264</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -13292,22 +13292,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.125275375064627</v>
+        <v>1.10781392545849</v>
       </c>
       <c r="O17">
-        <v>1.134925927362763</v>
+        <v>1.117462941399111</v>
       </c>
       <c r="P17">
-        <v>1.131416257107918</v>
+        <v>1.113956488957427</v>
       </c>
       <c r="Q17">
-        <v>29.95318982273534</v>
+        <v>29.93790450612657</v>
       </c>
       <c r="R17">
-        <v>-89.97158219551245</v>
+        <v>-89.98556905055888</v>
       </c>
       <c r="S17">
-        <v>149.5677240704653</v>
+        <v>149.5465278818391</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -13351,22 +13351,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.125275374897113</v>
+        <v>1.107813925395384</v>
       </c>
       <c r="O18">
-        <v>1.13492592715341</v>
+        <v>1.117462941294487</v>
       </c>
       <c r="P18">
-        <v>1.131416256810636</v>
+        <v>1.113956488763122</v>
       </c>
       <c r="Q18">
-        <v>29.95318980709225</v>
+        <v>29.93790450150653</v>
       </c>
       <c r="R18">
-        <v>-89.97158221750261</v>
+        <v>-89.98556906172711</v>
       </c>
       <c r="S18">
-        <v>149.5677240533582</v>
+        <v>149.5465278757046</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -13410,22 +13410,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.125275374822662</v>
+        <v>1.107813925367338</v>
       </c>
       <c r="O19">
-        <v>1.134925927060364</v>
+        <v>1.117462941247988</v>
       </c>
       <c r="P19">
-        <v>1.131416256678511</v>
+        <v>1.113956488676764</v>
       </c>
       <c r="Q19">
-        <v>29.95318980013977</v>
+        <v>29.93790449945317</v>
       </c>
       <c r="R19">
-        <v>-89.97158222727604</v>
+        <v>-89.98556906669076</v>
       </c>
       <c r="S19">
-        <v>149.567724045755</v>
+        <v>149.5465278729781</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -13469,22 +13469,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.125275374766823</v>
+        <v>1.107813925346302</v>
       </c>
       <c r="O20">
-        <v>1.13492592699058</v>
+        <v>1.117462941213114</v>
       </c>
       <c r="P20">
-        <v>1.131416256579417</v>
+        <v>1.113956488611996</v>
       </c>
       <c r="Q20">
-        <v>29.95318979492541</v>
+        <v>29.93790449791316</v>
       </c>
       <c r="R20">
-        <v>-89.97158223460609</v>
+        <v>-89.9855690704135</v>
       </c>
       <c r="S20">
-        <v>149.5677240400527</v>
+        <v>149.5465278709332</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -13528,22 +13528,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.125275374748211</v>
+        <v>1.107813925339291</v>
       </c>
       <c r="O21">
-        <v>1.134925926967318</v>
+        <v>1.117462941201489</v>
       </c>
       <c r="P21">
-        <v>1.131416256546385</v>
+        <v>1.113956488590406</v>
       </c>
       <c r="Q21">
-        <v>29.95318979318729</v>
+        <v>29.93790449739982</v>
       </c>
       <c r="R21">
-        <v>-89.97158223704943</v>
+        <v>-89.98556907165441</v>
       </c>
       <c r="S21">
-        <v>149.5677240381519</v>
+        <v>149.5465278702516</v>
       </c>
     </row>
   </sheetData>
@@ -13587,10 +13587,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.7488865943572</v>
+        <v>57.74195839440083</v>
       </c>
       <c r="C2">
-        <v>1000.240056619599</v>
+        <v>1000.120056676305</v>
       </c>
       <c r="D2">
         <v>0.01094540889423946</v>
@@ -13622,10 +13622,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.03631711608402815</v>
+        <v>0.01815855990684877</v>
       </c>
       <c r="G3">
-        <v>0.930455589536901</v>
+        <v>0.9305102378207489</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13645,10 +13645,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.03631713044316694</v>
+        <v>0.01815857450321837</v>
       </c>
       <c r="G4">
-        <v>0.9304990563516388</v>
+        <v>0.9305986682230254</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -13668,10 +13668,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.06860154132190638</v>
+        <v>0.01815857143029711</v>
       </c>
       <c r="G5">
-        <v>-9.523839510407644</v>
+        <v>0.9305800513090859</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -13691,10 +13691,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08510898881859634</v>
+        <v>0.01815857603968373</v>
       </c>
       <c r="G6">
-        <v>-11.74253177536312</v>
+        <v>0.9306079766793741</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -13714,10 +13714,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1017025464539793</v>
+        <v>0.01815857988084276</v>
       </c>
       <c r="G7">
-        <v>-13.23890590814797</v>
+        <v>0.9306312478101698</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13737,10 +13737,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1183459977675239</v>
+        <v>0.01815858064907488</v>
       </c>
       <c r="G8">
-        <v>-14.31497308329624</v>
+        <v>0.9306359020348661</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -13760,10 +13760,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1017025474135311</v>
+        <v>0.01815858218553948</v>
       </c>
       <c r="G9">
-        <v>-13.23890336344676</v>
+        <v>0.930645210484017</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13783,10 +13783,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1017025480532327</v>
+        <v>0.01815858372200434</v>
       </c>
       <c r="G10">
-        <v>-13.23890166697933</v>
+        <v>0.9306545189314118</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -13806,10 +13806,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1017025483730832</v>
+        <v>0.01815858449023706</v>
       </c>
       <c r="G11">
-        <v>-13.23890081874563</v>
+        <v>0.9306591731540846</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13829,10 +13829,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.05226186156168424</v>
+        <v>0.034300767473939</v>
       </c>
       <c r="G12">
-        <v>-5.909191913838111</v>
+        <v>-9.523822256020875</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -13852,10 +13852,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03631711835125872</v>
+        <v>0.01815856221153593</v>
       </c>
       <c r="G13">
-        <v>0.930462452720926</v>
+        <v>0.9305242005256616</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13875,10 +13875,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.03631712061849113</v>
+        <v>0.01815856451622416</v>
       </c>
       <c r="G14">
-        <v>0.93046931590308</v>
+        <v>0.9305381632263645</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -13898,10 +13898,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05226186418864419</v>
+        <v>0.0181585660526844</v>
       </c>
       <c r="G15">
-        <v>-5.909183425600868</v>
+        <v>0.9305474716922673</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13921,10 +13921,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05226186100109791</v>
+        <v>0.03430076700194901</v>
       </c>
       <c r="G16">
-        <v>-5.909193569787837</v>
+        <v>-9.523824877898772</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13944,10 +13944,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03631711759551513</v>
+        <v>0.01815856144330669</v>
       </c>
       <c r="G17">
-        <v>0.93046016499296</v>
+        <v>0.9305195462913808</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13967,10 +13967,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03631712439721142</v>
+        <v>0.01815856835737331</v>
       </c>
       <c r="G18">
-        <v>0.9304807545389936</v>
+        <v>0.9305614343865712</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -13990,10 +13990,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0363171274201886</v>
+        <v>0.01815857143029488</v>
       </c>
       <c r="G19">
-        <v>0.930489905446035</v>
+        <v>0.9305800513079215</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14013,10 +14013,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.03631712968742221</v>
+        <v>0.01815857373498721</v>
       </c>
       <c r="G20">
-        <v>0.930496768625258</v>
+        <v>0.9305940139949754</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -14036,10 +14036,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.03631713044316694</v>
+        <v>0.01815857450321837</v>
       </c>
       <c r="G21">
-        <v>0.9304990563514937</v>
+        <v>0.9305986682228736</v>
       </c>
     </row>
   </sheetData>
@@ -14119,7 +14119,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.8876322120229808</v>
+        <v>0.8875257217708244</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.12474696552851</v>
+        <v>5.124132143771024</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -14146,31 +14146,31 @@
         <v>0.01094540888868898</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674546</v>
+        <v>0.1094540870674545</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110945</v>
+        <v>0.01094540894378727</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248826</v>
+        <v>0.1094540869961655</v>
       </c>
       <c r="N2">
-        <v>1.090614241419287</v>
+        <v>1.09048339917754</v>
       </c>
       <c r="O2">
-        <v>1.100264023709024</v>
+        <v>1.100132023776938</v>
       </c>
       <c r="P2">
-        <v>1.096760037209109</v>
+        <v>1.096628457656631</v>
       </c>
       <c r="Q2">
-        <v>29.92212960019689</v>
+        <v>29.92212960012764</v>
       </c>
       <c r="R2">
-        <v>-90.00000000044361</v>
+        <v>-90.00000000021998</v>
       </c>
       <c r="S2">
-        <v>149.5246566649197</v>
+        <v>149.5246566647693</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -14214,22 +14214,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.126925913255563</v>
+        <v>1.108639190687551</v>
       </c>
       <c r="O3">
-        <v>1.136576500989241</v>
+        <v>1.118288224952292</v>
       </c>
       <c r="P3">
-        <v>1.133066568792609</v>
+        <v>1.114781637330956</v>
       </c>
       <c r="Q3">
-        <v>29.95462122647742</v>
+        <v>29.93864339128286</v>
       </c>
       <c r="R3">
-        <v>-89.97027219595205</v>
+        <v>-89.98489301687566</v>
       </c>
       <c r="S3">
-        <v>149.5697091889575</v>
+        <v>149.5475524101287</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -14273,22 +14273,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.126925912881078</v>
+        <v>1.108639190543919</v>
       </c>
       <c r="O4">
-        <v>1.136576500526369</v>
+        <v>1.118288224720979</v>
       </c>
       <c r="P4">
-        <v>1.133066568144456</v>
+        <v>1.114781636910494</v>
       </c>
       <c r="Q4">
-        <v>29.95462119129094</v>
+        <v>29.93864338041289</v>
       </c>
       <c r="R4">
-        <v>-89.97027224449869</v>
+        <v>-89.98489304154897</v>
       </c>
       <c r="S4">
-        <v>149.5697091506902</v>
+        <v>149.5475523960666</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -14332,22 +14332,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.158340306719639</v>
+        <v>1.108639190574158</v>
       </c>
       <c r="O5">
-        <v>1.16797516040869</v>
+        <v>1.118288224769677</v>
       </c>
       <c r="P5">
-        <v>1.164557835048755</v>
+        <v>1.114781636999012</v>
       </c>
       <c r="Q5">
-        <v>29.36522075765716</v>
+        <v>29.9386433827013</v>
       </c>
       <c r="R5">
-        <v>-90.5568262324104</v>
+        <v>-89.98489303635459</v>
       </c>
       <c r="S5">
-        <v>148.9938322415749</v>
+        <v>149.547552399027</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -14391,22 +14391,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.17409162406841</v>
+        <v>1.108639190528801</v>
       </c>
       <c r="O6">
-        <v>1.183718564982454</v>
+        <v>1.118288224696631</v>
       </c>
       <c r="P6">
-        <v>1.180345818598567</v>
+        <v>1.114781636866235</v>
       </c>
       <c r="Q6">
-        <v>29.08236309135739</v>
+        <v>29.93864337926868</v>
       </c>
       <c r="R6">
-        <v>-90.83841958556148</v>
+        <v>-89.98489304414616</v>
       </c>
       <c r="S6">
-        <v>148.7174308517398</v>
+        <v>149.5475523945863</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -14450,22 +14450,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.18987079841843</v>
+        <v>1.108639190491003</v>
       </c>
       <c r="O7">
-        <v>1.199489810915761</v>
+        <v>1.118288224635759</v>
       </c>
       <c r="P7">
-        <v>1.196160545848235</v>
+        <v>1.114781636755587</v>
       </c>
       <c r="Q7">
-        <v>28.8070009582419</v>
+        <v>29.93864337640816</v>
       </c>
       <c r="R7">
-        <v>-91.11261446757851</v>
+        <v>-89.98489305063914</v>
       </c>
       <c r="S7">
-        <v>148.4483320800184</v>
+        <v>149.5475523908858</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -14509,22 +14509,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.205676736341999</v>
+        <v>1.108639190483443</v>
       </c>
       <c r="O8">
-        <v>1.215287814597989</v>
+        <v>1.118288224623584</v>
       </c>
       <c r="P8">
-        <v>1.212000970248266</v>
+        <v>1.114781636733458</v>
       </c>
       <c r="Q8">
-        <v>28.53885256059129</v>
+        <v>29.93864337583606</v>
       </c>
       <c r="R8">
-        <v>-91.37968657740061</v>
+        <v>-89.98489305193773</v>
       </c>
       <c r="S8">
-        <v>148.1862617254154</v>
+        <v>149.5475523901457</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -14568,22 +14568,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.189870798138108</v>
+        <v>1.108639190468324</v>
       </c>
       <c r="O9">
-        <v>1.199489810622028</v>
+        <v>1.118288224599236</v>
       </c>
       <c r="P9">
-        <v>1.196160545526204</v>
+        <v>1.114781636689198</v>
       </c>
       <c r="Q9">
-        <v>28.80700094261798</v>
+        <v>29.93864337469185</v>
       </c>
       <c r="R9">
-        <v>-91.11261448511836</v>
+        <v>-89.98489305453492</v>
       </c>
       <c r="S9">
-        <v>148.4483320638813</v>
+        <v>149.5475523886655</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -14627,22 +14627,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.189870797951226</v>
+        <v>1.108639190453205</v>
       </c>
       <c r="O10">
-        <v>1.199489810426207</v>
+        <v>1.118288224574887</v>
       </c>
       <c r="P10">
-        <v>1.196160545311516</v>
+        <v>1.114781636644939</v>
       </c>
       <c r="Q10">
-        <v>28.80700093220202</v>
+        <v>29.93864337354763</v>
       </c>
       <c r="R10">
-        <v>-91.11261449681159</v>
+        <v>-89.98489305713211</v>
       </c>
       <c r="S10">
-        <v>148.4483320531233</v>
+        <v>149.5475523871852</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -14686,22 +14686,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.189870797857785</v>
+        <v>1.108639190445645</v>
       </c>
       <c r="O11">
-        <v>1.199489810328296</v>
+        <v>1.118288224562713</v>
       </c>
       <c r="P11">
-        <v>1.196160545204173</v>
+        <v>1.11478163662281</v>
       </c>
       <c r="Q11">
-        <v>28.80700092699405</v>
+        <v>29.93864337297553</v>
       </c>
       <c r="R11">
-        <v>-91.1126145026582</v>
+        <v>-89.98489305843071</v>
       </c>
       <c r="S11">
-        <v>148.4483320477443</v>
+        <v>149.5475523864451</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -14745,22 +14745,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.142617998751036</v>
+        <v>1.12433316648732</v>
       </c>
       <c r="O12">
-        <v>1.15226073874012</v>
+        <v>1.13397421682273</v>
       </c>
       <c r="P12">
-        <v>1.148797698219647</v>
+        <v>1.130515238404098</v>
       </c>
       <c r="Q12">
-        <v>29.65586986383648</v>
+        <v>29.63525624015107</v>
       </c>
       <c r="R12">
-        <v>-90.26754503436629</v>
+        <v>-90.28675769502941</v>
       </c>
       <c r="S12">
-        <v>149.277824196755</v>
+        <v>149.2512551218307</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -14804,22 +14804,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.126925913196434</v>
+        <v>1.108639190664873</v>
       </c>
       <c r="O13">
-        <v>1.136576500916156</v>
+        <v>1.118288224915769</v>
       </c>
       <c r="P13">
-        <v>1.13306656869027</v>
+        <v>1.114781637264567</v>
       </c>
       <c r="Q13">
-        <v>29.95462122092166</v>
+        <v>29.93864338956655</v>
       </c>
       <c r="R13">
-        <v>-89.97027220361731</v>
+        <v>-89.98489302077145</v>
       </c>
       <c r="S13">
-        <v>149.5697091829153</v>
+        <v>149.5475524079084</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -14863,22 +14863,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.126925913137305</v>
+        <v>1.108639190642194</v>
       </c>
       <c r="O14">
-        <v>1.136576500843071</v>
+        <v>1.118288224879246</v>
       </c>
       <c r="P14">
-        <v>1.13306656858793</v>
+        <v>1.114781637198179</v>
       </c>
       <c r="Q14">
-        <v>29.9546212153659</v>
+        <v>29.93864338785024</v>
       </c>
       <c r="R14">
-        <v>-89.97027221128256</v>
+        <v>-89.98489302466723</v>
       </c>
       <c r="S14">
-        <v>149.5697091768731</v>
+        <v>149.547552405688</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -14922,22 +14922,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.142617998402346</v>
+        <v>1.108639190627075</v>
       </c>
       <c r="O15">
-        <v>1.152260738368694</v>
+        <v>1.118288224854897</v>
       </c>
       <c r="P15">
-        <v>1.148797697798228</v>
+        <v>1.114781637153919</v>
       </c>
       <c r="Q15">
-        <v>29.65586986062308</v>
+        <v>29.93864338670603</v>
       </c>
       <c r="R15">
-        <v>-90.26754504108744</v>
+        <v>-89.98489302726442</v>
       </c>
       <c r="S15">
-        <v>149.2778241926093</v>
+        <v>149.5475524042078</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -14981,22 +14981,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.142617998789434</v>
+        <v>1.124333166513693</v>
       </c>
       <c r="O16">
-        <v>1.15226073878312</v>
+        <v>1.133974216853666</v>
       </c>
       <c r="P16">
-        <v>1.148797698272319</v>
+        <v>1.130515238444906</v>
       </c>
       <c r="Q16">
-        <v>29.65586986654853</v>
+        <v>29.63525624161232</v>
       </c>
       <c r="R16">
-        <v>-90.26754503096792</v>
+        <v>-90.28675769285937</v>
       </c>
       <c r="S16">
-        <v>149.2778241996321</v>
+        <v>149.2512551234629</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -15040,22 +15040,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.126925913216143</v>
+        <v>1.108639190672432</v>
       </c>
       <c r="O17">
-        <v>1.136576500940517</v>
+        <v>1.118288224927943</v>
       </c>
       <c r="P17">
-        <v>1.133066568724383</v>
+        <v>1.114781637286697</v>
       </c>
       <c r="Q17">
-        <v>29.95462122277358</v>
+        <v>29.93864339013865</v>
       </c>
       <c r="R17">
-        <v>-89.97027220106223</v>
+        <v>-89.98489301947285</v>
       </c>
       <c r="S17">
-        <v>149.5697091849294</v>
+        <v>149.5475524086485</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -15099,22 +15099,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.126925913038756</v>
+        <v>1.108639190604396</v>
       </c>
       <c r="O18">
-        <v>1.136576500721262</v>
+        <v>1.118288224818374</v>
       </c>
       <c r="P18">
-        <v>1.133066568417363</v>
+        <v>1.114781637087531</v>
       </c>
       <c r="Q18">
-        <v>29.9546212061063</v>
+        <v>29.93864338498972</v>
       </c>
       <c r="R18">
-        <v>-89.97027222405801</v>
+        <v>-89.98489303116021</v>
       </c>
       <c r="S18">
-        <v>149.5697091668027</v>
+        <v>149.5475524019875</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -15158,22 +15158,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.126925912959917</v>
+        <v>1.108639190574158</v>
       </c>
       <c r="O19">
-        <v>1.136576500623816</v>
+        <v>1.118288224769677</v>
       </c>
       <c r="P19">
-        <v>1.13306656828091</v>
+        <v>1.114781636999012</v>
       </c>
       <c r="Q19">
-        <v>29.95462119869863</v>
+        <v>29.9386433827013</v>
       </c>
       <c r="R19">
-        <v>-89.97027223427833</v>
+        <v>-89.98489303635459</v>
       </c>
       <c r="S19">
-        <v>149.5697091587464</v>
+        <v>149.547552399027</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -15217,22 +15217,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.126925912900788</v>
+        <v>1.108639190551479</v>
       </c>
       <c r="O20">
-        <v>1.13657650055073</v>
+        <v>1.118288224733154</v>
       </c>
       <c r="P20">
-        <v>1.13306656817857</v>
+        <v>1.114781636932624</v>
       </c>
       <c r="Q20">
-        <v>29.95462119314286</v>
+        <v>29.93864338098499</v>
       </c>
       <c r="R20">
-        <v>-89.97027224194359</v>
+        <v>-89.98489304025038</v>
       </c>
       <c r="S20">
-        <v>149.5697091527042</v>
+        <v>149.5475523968067</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -15276,22 +15276,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.126925912881078</v>
+        <v>1.108639190543919</v>
       </c>
       <c r="O21">
-        <v>1.136576500526369</v>
+        <v>1.118288224720979</v>
       </c>
       <c r="P21">
-        <v>1.133066568144456</v>
+        <v>1.114781636910494</v>
       </c>
       <c r="Q21">
-        <v>29.95462119129094</v>
+        <v>29.93864338041289</v>
       </c>
       <c r="R21">
-        <v>-89.97027224449869</v>
+        <v>-89.98489304154897</v>
       </c>
       <c r="S21">
-        <v>149.5697091506902</v>
+        <v>149.5475523960666</v>
       </c>
     </row>
   </sheetData>
@@ -20382,25 +20382,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.74888658394153</v>
+        <v>57.74195838640205</v>
       </c>
       <c r="D2">
-        <v>57.74888662425411</v>
+        <v>57.74195841028953</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.4133521463982</v>
+        <v>333.373352179254</v>
       </c>
       <c r="G2">
-        <v>333.4133523791429</v>
+        <v>333.3733523171684</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
         <v>0.01094540889714035</v>
@@ -20409,28 +20409,28 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110859</v>
+        <v>0.0109454089437864</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248848</v>
+        <v>0.1094540869961676</v>
       </c>
       <c r="N2">
-        <v>0.6352377299848792</v>
+        <v>0.6351615199155106</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6352377300008722</v>
+        <v>0.6351615199315069</v>
       </c>
       <c r="Q2">
-        <v>-1.458659737409646E-08</v>
+        <v>-5.179080201473345E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999863345</v>
+        <v>179.9999999957417</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -20474,22 +20474,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6652128396436168</v>
+        <v>0.6500907760281146</v>
       </c>
       <c r="O3">
-        <v>0.03466639610058916</v>
+        <v>0.01733319984294552</v>
       </c>
       <c r="P3">
-        <v>0.6657502471781661</v>
+        <v>0.6503657652176663</v>
       </c>
       <c r="Q3">
-        <v>1.534906605987347</v>
+        <v>0.7852365358006445</v>
       </c>
       <c r="R3">
-        <v>-89.0694660108004</v>
+        <v>-89.06941138135949</v>
       </c>
       <c r="S3">
-        <v>178.5502645028927</v>
+        <v>179.2580442093077</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -20533,22 +20533,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6652128298889883</v>
+        <v>0.6500907660509638</v>
       </c>
       <c r="O4">
-        <v>0.03466641048132542</v>
+        <v>0.0173332144501366</v>
       </c>
       <c r="P4">
-        <v>0.6657502648377871</v>
+        <v>0.6503657833032271</v>
       </c>
       <c r="Q4">
-        <v>1.534907874975787</v>
+        <v>0.7852378676558985</v>
       </c>
       <c r="R4">
-        <v>-89.06942040296437</v>
+        <v>-89.06931866893432</v>
       </c>
       <c r="S4">
-        <v>178.5502645874911</v>
+        <v>179.2580443025099</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -20592,22 +20592,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6984724276665457</v>
+        <v>0.6500907681514154</v>
       </c>
       <c r="O5">
-        <v>0.06697894813967147</v>
+        <v>0.01733321137493288</v>
       </c>
       <c r="P5">
-        <v>0.6880472672425386</v>
+        <v>0.6503657794957395</v>
       </c>
       <c r="Q5">
-        <v>1.8993042961437</v>
+        <v>0.785237587265128</v>
       </c>
       <c r="R5">
-        <v>-99.77999396718754</v>
+        <v>-89.06933818732647</v>
       </c>
       <c r="S5">
-        <v>176.4289345317384</v>
+        <v>179.2580442828884</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -20651,22 +20651,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7151120778651958</v>
+        <v>0.6500907650007357</v>
       </c>
       <c r="O6">
-        <v>0.08349935202234293</v>
+        <v>0.01733321598773589</v>
       </c>
       <c r="P6">
-        <v>0.6995324263381406</v>
+        <v>0.6503657852069689</v>
       </c>
       <c r="Q6">
-        <v>2.068788648470338</v>
+        <v>0.7852380078509401</v>
       </c>
       <c r="R6">
-        <v>-101.9909609940867</v>
+        <v>-89.06930890973993</v>
       </c>
       <c r="S6">
-        <v>175.4196701289746</v>
+        <v>179.2580443123206</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -20710,22 +20710,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7317577013045894</v>
+        <v>0.6500907623751694</v>
       </c>
       <c r="O7">
-        <v>0.1001029741711956</v>
+        <v>0.01733321983174161</v>
       </c>
       <c r="P7">
-        <v>0.7112275922108114</v>
+        <v>0.6503657899663269</v>
       </c>
       <c r="Q7">
-        <v>2.230563633466005</v>
+        <v>0.7852383583391187</v>
       </c>
       <c r="R7">
-        <v>-103.4701181425072</v>
+        <v>-89.0692845117628</v>
       </c>
       <c r="S7">
-        <v>174.4433028965675</v>
+        <v>179.2580443368475</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -20769,22 +20769,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7484089010747398</v>
+        <v>0.6500907618500562</v>
       </c>
       <c r="O8">
-        <v>0.1167543156925839</v>
+        <v>0.01733322060054302</v>
       </c>
       <c r="P8">
-        <v>0.7231225730384488</v>
+        <v>0.6503657909181983</v>
       </c>
       <c r="Q8">
-        <v>2.385140997864424</v>
+        <v>0.7852384284367514</v>
       </c>
       <c r="R8">
-        <v>-104.5279146413834</v>
+        <v>-89.06927963216884</v>
       </c>
       <c r="S8">
-        <v>173.4987902199096</v>
+        <v>179.2580443417529</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -20828,22 +20828,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7317576996887075</v>
+        <v>0.6500907607998293</v>
       </c>
       <c r="O9">
-        <v>0.1001029751141154</v>
+        <v>0.01733322213814624</v>
       </c>
       <c r="P9">
-        <v>0.711227594686893</v>
+        <v>0.6503657928219416</v>
       </c>
       <c r="Q9">
-        <v>2.230563794249345</v>
+        <v>0.7852385686320124</v>
       </c>
       <c r="R9">
-        <v>-103.4701155506888</v>
+        <v>-89.06926987298115</v>
       </c>
       <c r="S9">
-        <v>174.4433029173682</v>
+        <v>179.2580443515637</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -20887,22 +20887,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7317576986114529</v>
+        <v>0.6500907597496027</v>
       </c>
       <c r="O10">
-        <v>0.1001029757427285</v>
+        <v>0.0173332236757499</v>
       </c>
       <c r="P10">
-        <v>0.7112275963376138</v>
+        <v>0.6503657947256849</v>
       </c>
       <c r="Q10">
-        <v>2.230563901438232</v>
+        <v>0.7852387088272725</v>
       </c>
       <c r="R10">
-        <v>-103.4701138228099</v>
+        <v>-89.06926011379551</v>
       </c>
       <c r="S10">
-        <v>174.4433029312353</v>
+        <v>179.2580443613745</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -20946,22 +20946,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7317576980728255</v>
+        <v>0.6500907592244892</v>
       </c>
       <c r="O11">
-        <v>0.1001029760570352</v>
+        <v>0.01733322444455208</v>
       </c>
       <c r="P11">
-        <v>0.7112275971629743</v>
+        <v>0.6503657956775563</v>
       </c>
       <c r="Q11">
-        <v>2.230563955032684</v>
+        <v>0.7852387789249172</v>
       </c>
       <c r="R11">
-        <v>-103.4701129588704</v>
+        <v>-89.06925523420298</v>
       </c>
       <c r="S11">
-        <v>174.4433029381688</v>
+        <v>179.2580443662798</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -21005,22 +21005,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6818391908136509</v>
+        <v>0.6666874853715554</v>
       </c>
       <c r="O12">
-        <v>0.05062329802654495</v>
+        <v>0.03348947090510507</v>
       </c>
       <c r="P12">
-        <v>0.6767828021374004</v>
+        <v>0.6612455909915782</v>
       </c>
       <c r="Q12">
-        <v>1.721548909130484</v>
+        <v>0.9947956593004269</v>
       </c>
       <c r="R12">
-        <v>-96.13161957176764</v>
+        <v>-99.7799777038082</v>
       </c>
       <c r="S12">
-        <v>177.4721283438617</v>
+        <v>178.1429737211141</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -21064,22 +21064,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6652128381034115</v>
+        <v>0.6500907744527741</v>
       </c>
       <c r="O13">
-        <v>0.03466639837122951</v>
+        <v>0.0173332021493401</v>
       </c>
       <c r="P13">
-        <v>0.6657502499665272</v>
+        <v>0.6503657680732809</v>
       </c>
       <c r="Q13">
-        <v>1.534906806353882</v>
+        <v>0.7852367460935138</v>
       </c>
       <c r="R13">
-        <v>-89.06945880955963</v>
+        <v>-89.06939674254268</v>
       </c>
       <c r="S13">
-        <v>178.5502645162504</v>
+        <v>179.2580442240238</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -21123,22 +21123,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6652128365632077</v>
+        <v>0.6500907728774352</v>
       </c>
       <c r="O14">
-        <v>0.03466640064187141</v>
+        <v>0.01733320445573771</v>
       </c>
       <c r="P14">
-        <v>0.6657502527548887</v>
+        <v>0.650365770928896</v>
       </c>
       <c r="Q14">
-        <v>1.534907006720498</v>
+        <v>0.7852369563865108</v>
       </c>
       <c r="R14">
-        <v>-89.06945160832149</v>
+        <v>-89.06938210373433</v>
       </c>
       <c r="S14">
-        <v>178.550264529608</v>
+        <v>179.25804423874</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -21182,22 +21182,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.68183918798193</v>
+        <v>0.6500907718272082</v>
       </c>
       <c r="O15">
-        <v>0.05062330062765408</v>
+        <v>0.01733320599333539</v>
       </c>
       <c r="P15">
-        <v>0.6767828066122245</v>
+        <v>0.6503657728326387</v>
       </c>
       <c r="Q15">
-        <v>1.721549234549931</v>
+        <v>0.7852370965817062</v>
       </c>
       <c r="R15">
-        <v>-96.13161078378563</v>
+        <v>-89.06937234452973</v>
       </c>
       <c r="S15">
-        <v>177.4721283919579</v>
+        <v>179.2580442485507</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -21241,22 +21241,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6818391913329773</v>
+        <v>0.6666874859019002</v>
       </c>
       <c r="O16">
-        <v>0.05062329747097961</v>
+        <v>0.03348947043979099</v>
       </c>
       <c r="P16">
-        <v>0.6767828012339747</v>
+        <v>0.6612455900659373</v>
       </c>
       <c r="Q16">
-        <v>1.721548845876717</v>
+        <v>0.9947955928854505</v>
       </c>
       <c r="R16">
-        <v>-96.13162128647454</v>
+        <v>-99.77998039487403</v>
       </c>
       <c r="S16">
-        <v>177.4721283385708</v>
+        <v>178.1429737152422</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -21300,22 +21300,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6652128386168132</v>
+        <v>0.6500907749778875</v>
       </c>
       <c r="O17">
-        <v>0.03466639761434927</v>
+        <v>0.01733320138054169</v>
       </c>
       <c r="P17">
-        <v>0.6657502490370736</v>
+        <v>0.6503657671214094</v>
       </c>
       <c r="Q17">
-        <v>1.534906739565029</v>
+        <v>0.7852366759958829</v>
       </c>
       <c r="R17">
-        <v>-89.06946120997316</v>
+        <v>-89.06940162214788</v>
       </c>
       <c r="S17">
-        <v>178.5502645117978</v>
+        <v>179.2580442191184</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -21359,22 +21359,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6652128339962002</v>
+        <v>0.6500907702518693</v>
       </c>
       <c r="O18">
-        <v>0.03466640442627539</v>
+        <v>0.01733320829973483</v>
       </c>
       <c r="P18">
-        <v>0.6657502574021575</v>
+        <v>0.6503657756882543</v>
       </c>
       <c r="Q18">
-        <v>1.534907340664832</v>
+        <v>0.7852373068747442</v>
       </c>
       <c r="R18">
-        <v>-89.06943960625891</v>
+        <v>-89.06935770572574</v>
       </c>
       <c r="S18">
-        <v>178.5502645518707</v>
+        <v>179.2580442632669</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -21418,22 +21418,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6652128319425944</v>
+        <v>0.6500907681514168</v>
       </c>
       <c r="O19">
-        <v>0.03466640745379998</v>
+        <v>0.01733321137493474</v>
       </c>
       <c r="P19">
-        <v>0.6657502611199724</v>
+        <v>0.6503657794957408</v>
       </c>
       <c r="Q19">
-        <v>1.534907607820323</v>
+        <v>0.7852375872653209</v>
       </c>
       <c r="R19">
-        <v>-89.06943000461081</v>
+        <v>-89.06933818732666</v>
       </c>
       <c r="S19">
-        <v>178.5502645696809</v>
+        <v>179.2580442828884</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -21477,22 +21477,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.66521283040239</v>
+        <v>0.6500907665760771</v>
       </c>
       <c r="O20">
-        <v>0.03466640972444414</v>
+        <v>0.01733321368133599</v>
       </c>
       <c r="P20">
-        <v>0.6657502639083336</v>
+        <v>0.6503657823513556</v>
       </c>
       <c r="Q20">
-        <v>1.534907808186934</v>
+        <v>0.7852377975582584</v>
       </c>
       <c r="R20">
-        <v>-89.06942280337601</v>
+        <v>-89.06932354853205</v>
       </c>
       <c r="S20">
-        <v>178.5502645830386</v>
+        <v>179.2580442976045</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -21536,22 +21536,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6652128298889886</v>
+        <v>0.6500907660509638</v>
       </c>
       <c r="O21">
-        <v>0.03466641048132535</v>
+        <v>0.01733321445013647</v>
       </c>
       <c r="P21">
-        <v>0.6657502648377872</v>
+        <v>0.6503657833032271</v>
       </c>
       <c r="Q21">
-        <v>1.534907874975788</v>
+        <v>0.785237867655885</v>
       </c>
       <c r="R21">
-        <v>-89.06942040296452</v>
+        <v>-89.06931866893463</v>
       </c>
       <c r="S21">
-        <v>178.5502645874911</v>
+        <v>179.2580443025099</v>
       </c>
     </row>
   </sheetData>
@@ -21634,19 +21634,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.74888658393989</v>
+        <v>57.74195838640122</v>
       </c>
       <c r="D2">
-        <v>57.74888662425246</v>
+        <v>57.74195841028871</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.4133521463886</v>
+        <v>333.3733521792491</v>
       </c>
       <c r="G2">
-        <v>333.4133523791334</v>
+        <v>333.3733523171637</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -21655,34 +21655,34 @@
         <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110854</v>
+        <v>0.01094540894378635</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248848</v>
+        <v>0.1094540869961677</v>
       </c>
       <c r="N2">
-        <v>0.6352377299848609</v>
+        <v>0.6351615199155015</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6352377300008542</v>
+        <v>0.6351615199314978</v>
       </c>
       <c r="Q2">
-        <v>-1.458662394614557E-08</v>
+        <v>-5.179101003252274E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999863345</v>
+        <v>179.9999999957417</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -21726,22 +21726,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6666515719627655</v>
+        <v>0.6508046654133918</v>
       </c>
       <c r="O3">
-        <v>0.03631717686338991</v>
+        <v>0.01815859030994796</v>
       </c>
       <c r="P3">
-        <v>0.6672133457878089</v>
+        <v>0.6510924306392881</v>
       </c>
       <c r="Q3">
-        <v>1.604544912430163</v>
+        <v>0.8217288294626004</v>
       </c>
       <c r="R3">
-        <v>-89.06946601201352</v>
+        <v>-89.06941138378595</v>
       </c>
       <c r="S3">
-        <v>178.4845449217773</v>
+        <v>179.2235784261429</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -21785,22 +21785,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6666515622283731</v>
+        <v>0.6508046554473574</v>
       </c>
       <c r="O4">
-        <v>0.0363171912225637</v>
+        <v>0.01815860490635573</v>
       </c>
       <c r="P4">
-        <v>0.6672133634072227</v>
+        <v>0.651092448704494</v>
       </c>
       <c r="Q4">
-        <v>1.604546175558641</v>
+        <v>0.8217301582976044</v>
       </c>
       <c r="R4">
-        <v>-89.06942254529928</v>
+        <v>-89.06932295359908</v>
       </c>
       <c r="S4">
-        <v>178.4845450055025</v>
+        <v>179.2235785189773</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -21844,22 +21844,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6999162501129251</v>
+        <v>0.6508046575454695</v>
       </c>
       <c r="O5">
-        <v>0.06860165610199093</v>
+        <v>0.01815860183342293</v>
       </c>
       <c r="P5">
-        <v>0.6895376192277133</v>
+        <v>0.6510924449012926</v>
       </c>
       <c r="Q5">
-        <v>1.964882797742867</v>
+        <v>0.821729878542709</v>
       </c>
       <c r="R5">
-        <v>-99.52376110171942</v>
+        <v>-89.06934157046697</v>
       </c>
       <c r="S5">
-        <v>176.3698850294958</v>
+        <v>179.2235784994332</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -21903,22 +21903,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7165582482705473</v>
+        <v>0.6508046543983003</v>
       </c>
       <c r="O6">
-        <v>0.08510913120960892</v>
+        <v>0.01815860644282047</v>
       </c>
       <c r="P6">
-        <v>0.7010350322661297</v>
+        <v>0.6510924506060946</v>
       </c>
       <c r="Q6">
-        <v>2.132502423103248</v>
+        <v>0.8217302981747731</v>
       </c>
       <c r="R6">
-        <v>-101.742453365699</v>
+        <v>-89.06931364516359</v>
       </c>
       <c r="S6">
-        <v>175.3637430763344</v>
+        <v>179.2235785287493</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -21962,22 +21962,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7332061012899317</v>
+        <v>0.6508046517756596</v>
       </c>
       <c r="O7">
-        <v>0.1017027165999226</v>
+        <v>0.01815861028398799</v>
       </c>
       <c r="P7">
-        <v>0.7127416106020635</v>
+        <v>0.6510924553600963</v>
       </c>
       <c r="Q7">
-        <v>2.292511517623348</v>
+        <v>0.8217306478681543</v>
       </c>
       <c r="R7">
-        <v>-103.2388274980714</v>
+        <v>-89.06929037408814</v>
       </c>
       <c r="S7">
-        <v>174.3903602443938</v>
+        <v>179.2235785531794</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -22021,22 +22021,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7498594208608369</v>
+        <v>0.6508046512511312</v>
       </c>
       <c r="O8">
-        <v>0.118346195751842</v>
+        <v>0.01815861105222181</v>
       </c>
       <c r="P8">
-        <v>0.7246472147167027</v>
+        <v>0.6510924563108964</v>
       </c>
       <c r="Q8">
-        <v>2.445414400374849</v>
+        <v>0.8217307178068305</v>
       </c>
       <c r="R8">
-        <v>-104.3148946730412</v>
+        <v>-89.06928571987426</v>
       </c>
       <c r="S8">
-        <v>173.448697368749</v>
+        <v>179.2235785580655</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -22080,22 +22080,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7332060996765464</v>
+        <v>0.6508046502020748</v>
       </c>
       <c r="O9">
-        <v>0.10170271755948</v>
+        <v>0.01815861258868992</v>
       </c>
       <c r="P9">
-        <v>0.7127416130720712</v>
+        <v>0.6510924582124971</v>
       </c>
       <c r="Q9">
-        <v>2.292511677630968</v>
+        <v>0.8217308576841826</v>
       </c>
       <c r="R9">
-        <v>-103.2388249533755</v>
+        <v>-89.06927641144716</v>
       </c>
       <c r="S9">
-        <v>174.390360264941</v>
+        <v>179.2235785678375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -22139,22 +22139,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7332060986009561</v>
+        <v>0.6508046491530183</v>
       </c>
       <c r="O10">
-        <v>0.1017027181991847</v>
+        <v>0.0181586141251582</v>
       </c>
       <c r="P10">
-        <v>0.712741614718743</v>
+        <v>0.6510924601140977</v>
       </c>
       <c r="Q10">
-        <v>2.292511784302705</v>
+        <v>0.8217309975615346</v>
       </c>
       <c r="R10">
-        <v>-103.2388232569116</v>
+        <v>-89.06926710302162</v>
       </c>
       <c r="S10">
-        <v>174.3903602786392</v>
+        <v>179.2235785776096</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -22198,22 +22198,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7332060980631609</v>
+        <v>0.65080464862849</v>
       </c>
       <c r="O11">
-        <v>0.1017027185190372</v>
+        <v>0.01815861489339255</v>
       </c>
       <c r="P11">
-        <v>0.7127416155420786</v>
+        <v>0.651092461064898</v>
       </c>
       <c r="Q11">
-        <v>2.292511837638584</v>
+        <v>0.8217310675002049</v>
       </c>
       <c r="R11">
-        <v>-103.2388224086796</v>
+        <v>-89.06926244880908</v>
       </c>
       <c r="S11">
-        <v>174.3903602854882</v>
+        <v>179.2235785824956</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -22257,22 +22257,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6832805374063177</v>
+        <v>0.6674028811239324</v>
       </c>
       <c r="O12">
-        <v>0.05226194901135254</v>
+        <v>0.03430082487448576</v>
       </c>
       <c r="P12">
-        <v>0.6782600040141157</v>
+        <v>0.6619797304968084</v>
       </c>
       <c r="Q12">
-        <v>1.789099207833248</v>
+        <v>1.030156044732636</v>
       </c>
       <c r="R12">
-        <v>-95.90911350762811</v>
+        <v>-99.52374385706197</v>
       </c>
       <c r="S12">
-        <v>177.4098154205542</v>
+        <v>178.1103049575141</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -22316,22 +22316,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6666515704257556</v>
+        <v>0.650804663839807</v>
       </c>
       <c r="O13">
-        <v>0.03631717913062549</v>
+        <v>0.0181585926146401</v>
       </c>
       <c r="P13">
-        <v>0.6672133485698215</v>
+        <v>0.6510924334916891</v>
       </c>
       <c r="Q13">
-        <v>1.604545111871461</v>
+        <v>0.821729039278604</v>
       </c>
       <c r="R13">
-        <v>-89.06945914884511</v>
+        <v>-89.06939742111331</v>
       </c>
       <c r="S13">
-        <v>178.484544934997</v>
+        <v>179.223578440801</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -22375,22 +22375,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6666515688887465</v>
+        <v>0.6508046622662228</v>
       </c>
       <c r="O14">
-        <v>0.03631718139786343</v>
+        <v>0.01815859491933522</v>
       </c>
       <c r="P14">
-        <v>0.6672133513518342</v>
+        <v>0.6510924363440899</v>
       </c>
       <c r="Q14">
-        <v>1.604545311312823</v>
+        <v>0.8217292490946856</v>
       </c>
       <c r="R14">
-        <v>-89.06945228567888</v>
+        <v>-89.06938345844786</v>
       </c>
       <c r="S14">
-        <v>178.4845449482168</v>
+        <v>179.223578455459</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -22434,22 +22434,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6832805345797347</v>
+        <v>0.6508046612171665</v>
       </c>
       <c r="O15">
-        <v>0.05226195163831258</v>
+        <v>0.01815859645579792</v>
       </c>
       <c r="P15">
-        <v>0.6782600084781798</v>
+        <v>0.6510924382456905</v>
       </c>
       <c r="Q15">
-        <v>1.78909953178302</v>
+        <v>0.8217293889719807</v>
       </c>
       <c r="R15">
-        <v>-95.90910501942247</v>
+        <v>-89.06937415000471</v>
       </c>
       <c r="S15">
-        <v>177.4098154683123</v>
+        <v>179.2235784652311</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -22493,22 +22493,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6832805379246423</v>
+        <v>0.6674028816537266</v>
       </c>
       <c r="O16">
-        <v>0.05226194845076433</v>
+        <v>0.03430082440249405</v>
       </c>
       <c r="P16">
-        <v>0.6782600031127866</v>
+        <v>0.6619797295722296</v>
       </c>
       <c r="Q16">
-        <v>1.789099144874192</v>
+        <v>1.030155978469504</v>
       </c>
       <c r="R16">
-        <v>-95.9091151635744</v>
+        <v>-99.52374647893467</v>
       </c>
       <c r="S16">
-        <v>177.4098154153207</v>
+        <v>178.110304951668</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6666515709380922</v>
+        <v>0.6508046643643353</v>
       </c>
       <c r="O17">
-        <v>0.03631717837488015</v>
+        <v>0.01815859184640915</v>
       </c>
       <c r="P17">
-        <v>0.667213347642484</v>
+        <v>0.6510924325408887</v>
       </c>
       <c r="Q17">
-        <v>1.604545045391021</v>
+        <v>0.8217289693399246</v>
       </c>
       <c r="R17">
-        <v>-89.06946143656789</v>
+        <v>-89.06940207533736</v>
       </c>
       <c r="S17">
-        <v>178.4845449305905</v>
+        <v>179.223578435915</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -22611,22 +22611,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6666515663270645</v>
+        <v>0.6508046596435823</v>
       </c>
       <c r="O18">
-        <v>0.03631718517659299</v>
+        <v>0.01815859876049453</v>
       </c>
       <c r="P18">
-        <v>0.6672133559885219</v>
+        <v>0.6510924410980915</v>
       </c>
       <c r="Q18">
-        <v>1.60454564371506</v>
+        <v>0.8217295987880963</v>
       </c>
       <c r="R18">
-        <v>-89.06944084706952</v>
+        <v>-89.06936018734393</v>
       </c>
       <c r="S18">
-        <v>178.4845449702498</v>
+        <v>179.2235784798891</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -22670,22 +22670,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6666515642777187</v>
+        <v>0.6508046575454698</v>
       </c>
       <c r="O19">
-        <v>0.03631718819957779</v>
+        <v>0.01815860183342426</v>
       </c>
       <c r="P19">
-        <v>0.6672133596978722</v>
+        <v>0.6510924449012926</v>
       </c>
       <c r="Q19">
-        <v>1.604545909636851</v>
+        <v>0.8217298785428537</v>
       </c>
       <c r="R19">
-        <v>-89.06943169618371</v>
+        <v>-89.06934157046857</v>
       </c>
       <c r="S19">
-        <v>178.4845449878761</v>
+        <v>179.2235784994332</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -22729,22 +22729,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6666515627407096</v>
+        <v>0.6508046559718857</v>
       </c>
       <c r="O20">
-        <v>0.03631719046681731</v>
+        <v>0.01815860413812275</v>
       </c>
       <c r="P20">
-        <v>0.6672133624798849</v>
+        <v>0.6510924477536937</v>
       </c>
       <c r="Q20">
-        <v>1.60454610907821</v>
+        <v>0.8217300883589185</v>
       </c>
       <c r="R20">
-        <v>-89.06942483302034</v>
+        <v>-89.06932760781632</v>
       </c>
       <c r="S20">
-        <v>178.4845450010959</v>
+        <v>179.2235785140913</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -22788,22 +22788,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6666515622283731</v>
+        <v>0.6508046554473574</v>
       </c>
       <c r="O21">
-        <v>0.0363171912225637</v>
+        <v>0.01815860490635579</v>
       </c>
       <c r="P21">
-        <v>0.6672133634072225</v>
+        <v>0.6510924487044938</v>
       </c>
       <c r="Q21">
-        <v>1.604546175558652</v>
+        <v>0.821730158297605</v>
       </c>
       <c r="R21">
-        <v>-89.06942254529933</v>
+        <v>-89.0693229535992</v>
       </c>
       <c r="S21">
-        <v>178.4845450055025</v>
+        <v>179.2235785189773</v>
       </c>
     </row>
   </sheetData>
@@ -22886,25 +22886,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8876322120148754</v>
+        <v>0.887525721766071</v>
       </c>
       <c r="D2">
-        <v>0.8876322120283492</v>
+        <v>0.8875257217735502</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.124746965481712</v>
+        <v>5.12413214374358</v>
       </c>
       <c r="G2">
-        <v>5.124746965559503</v>
+        <v>5.124132143786762</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
         <v>0.01094540889714035</v>
@@ -22913,28 +22913,28 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110859</v>
+        <v>0.0109454089437864</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248848</v>
+        <v>0.1094540869961676</v>
       </c>
       <c r="N2">
-        <v>1.096760037206089</v>
+        <v>1.096628457654468</v>
       </c>
       <c r="O2">
-        <v>1.087122999355595</v>
+        <v>1.086992575965402</v>
       </c>
       <c r="P2">
-        <v>1.090614241416134</v>
+        <v>1.090483399175309</v>
       </c>
       <c r="Q2">
-        <v>29.52465666447993</v>
+        <v>29.52465666455193</v>
       </c>
       <c r="R2">
-        <v>-90.55768087637639</v>
+        <v>-90.55768087659949</v>
       </c>
       <c r="S2">
-        <v>149.9221295997429</v>
+        <v>149.9221295998979</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -22978,22 +22978,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.131416256958774</v>
+        <v>1.113956488892573</v>
       </c>
       <c r="O3">
-        <v>1.121778004058817</v>
+        <v>1.10431998944004</v>
       </c>
       <c r="P3">
-        <v>1.125275374878905</v>
+        <v>1.107813925360549</v>
       </c>
       <c r="Q3">
-        <v>29.5677240165238</v>
+        <v>29.5465278538823</v>
       </c>
       <c r="R3">
-        <v>-90.51169973122056</v>
+        <v>-90.53432684055738</v>
       </c>
       <c r="S3">
-        <v>149.9531897682158</v>
+        <v>149.9379044776976</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -23037,22 +23037,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.131416256331179</v>
+        <v>1.113956488482373</v>
       </c>
       <c r="O4">
-        <v>1.121778003517123</v>
+        <v>1.10431998911499</v>
       </c>
       <c r="P4">
-        <v>1.125275374525262</v>
+        <v>1.107813925227326</v>
       </c>
       <c r="Q4">
-        <v>29.56772398040879</v>
+        <v>29.54652784093155</v>
       </c>
       <c r="R4">
-        <v>-90.51169975378446</v>
+        <v>-90.53432683952549</v>
       </c>
       <c r="S4">
-        <v>149.9531897351915</v>
+        <v>149.9379044679442</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -23096,22 +23096,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.162908000645178</v>
+        <v>1.113956488568731</v>
       </c>
       <c r="O5">
-        <v>1.153285992842561</v>
+        <v>1.104319989183421</v>
       </c>
       <c r="P5">
-        <v>1.156690144805174</v>
+        <v>1.107813925255373</v>
       </c>
       <c r="Q5">
-        <v>28.99108365037904</v>
+        <v>29.54652784365803</v>
       </c>
       <c r="R5">
-        <v>-91.09098582260879</v>
+        <v>-90.53432683974273</v>
       </c>
       <c r="S5">
-        <v>149.3629871730753</v>
+        <v>149.9379044699975</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -23155,22 +23155,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.178696272606614</v>
+        <v>1.113956488439194</v>
       </c>
       <c r="O6">
-        <v>1.169082407765855</v>
+        <v>1.104319989080774</v>
       </c>
       <c r="P6">
-        <v>1.17244170490402</v>
+        <v>1.107813925213303</v>
       </c>
       <c r="Q6">
-        <v>28.71433220418297</v>
+        <v>29.54652783956831</v>
       </c>
       <c r="R6">
-        <v>-91.36890543679102</v>
+        <v>-90.53432683941686</v>
       </c>
       <c r="S6">
-        <v>149.0797614091813</v>
+        <v>149.9379044669175</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -23214,22 +23214,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.19451131756446</v>
+        <v>1.113956488331247</v>
       </c>
       <c r="O7">
-        <v>1.184905595682673</v>
+        <v>1.104319988995235</v>
       </c>
       <c r="P7">
-        <v>1.188221154239275</v>
+        <v>1.107813925178245</v>
       </c>
       <c r="Q7">
-        <v>28.44490286044649</v>
+        <v>29.54652783616022</v>
       </c>
       <c r="R7">
-        <v>-91.63940861334926</v>
+        <v>-90.53432683914532</v>
       </c>
       <c r="S7">
-        <v>148.8040514760686</v>
+        <v>149.9379044643508</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -23273,22 +23273,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.210352086370456</v>
+        <v>1.113956488309658</v>
       </c>
       <c r="O8">
-        <v>1.200754498498855</v>
+        <v>1.104319988978127</v>
       </c>
       <c r="P8">
-        <v>1.204027396595392</v>
+        <v>1.107813925171233</v>
       </c>
       <c r="Q8">
-        <v>28.18252030157018</v>
+        <v>29.5465278354786</v>
       </c>
       <c r="R8">
-        <v>-91.90277670587469</v>
+        <v>-90.53432683909101</v>
       </c>
       <c r="S8">
-        <v>148.5355744164132</v>
+        <v>149.9379044638375</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -23332,22 +23332,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.194511317245555</v>
+        <v>1.113956488266479</v>
       </c>
       <c r="O9">
-        <v>1.184905595376813</v>
+        <v>1.104319988943911</v>
       </c>
       <c r="P9">
-        <v>1.188221153962119</v>
+        <v>1.10781392515721</v>
       </c>
       <c r="Q9">
-        <v>28.44490284461965</v>
+        <v>29.54652783411536</v>
       </c>
       <c r="R9">
-        <v>-91.63940862723604</v>
+        <v>-90.53432683898239</v>
       </c>
       <c r="S9">
-        <v>148.8040514607565</v>
+        <v>149.9379044628108</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -23391,22 +23391,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.194511317032952</v>
+        <v>1.1139564882233</v>
       </c>
       <c r="O10">
-        <v>1.184905595172906</v>
+        <v>1.104319988909695</v>
       </c>
       <c r="P10">
-        <v>1.188221153777349</v>
+        <v>1.107813925143186</v>
       </c>
       <c r="Q10">
-        <v>28.44490283406841</v>
+        <v>29.54652783275212</v>
       </c>
       <c r="R10">
-        <v>-91.63940863649391</v>
+        <v>-90.53432683887377</v>
       </c>
       <c r="S10">
-        <v>148.8040514505484</v>
+        <v>149.9379044617841</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -23450,22 +23450,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.194511316926651</v>
+        <v>1.113956488201711</v>
       </c>
       <c r="O11">
-        <v>1.184905595070953</v>
+        <v>1.104319988892587</v>
       </c>
       <c r="P11">
-        <v>1.188221153684964</v>
+        <v>1.107813925136174</v>
       </c>
       <c r="Q11">
-        <v>28.4449028287928</v>
+        <v>29.54652783207051</v>
       </c>
       <c r="R11">
-        <v>-91.63940864112284</v>
+        <v>-90.53432683881945</v>
       </c>
       <c r="S11">
-        <v>148.8040514454444</v>
+        <v>149.9379044612708</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -23509,22 +23509,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.147147607511506</v>
+        <v>1.129690203788676</v>
       </c>
       <c r="O12">
-        <v>1.137517466655436</v>
+        <v>1.120061953749746</v>
       </c>
       <c r="P12">
-        <v>1.14096762933549</v>
+        <v>1.123507988136963</v>
       </c>
       <c r="Q12">
-        <v>29.27544633839988</v>
+        <v>29.25002840307549</v>
       </c>
       <c r="R12">
-        <v>-90.80535415851791</v>
+        <v>-90.83224004929905</v>
       </c>
       <c r="S12">
-        <v>149.6540259122126</v>
+        <v>149.6343047835814</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -23568,22 +23568,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.13141625685968</v>
+        <v>1.113956488827804</v>
       </c>
       <c r="O13">
-        <v>1.121778003973286</v>
+        <v>1.104319989388716</v>
       </c>
       <c r="P13">
-        <v>1.125275374823067</v>
+        <v>1.107813925339514</v>
       </c>
       <c r="Q13">
-        <v>29.56772401082143</v>
+        <v>29.54652785183745</v>
       </c>
       <c r="R13">
-        <v>-90.51169973478328</v>
+        <v>-90.53432684039446</v>
       </c>
       <c r="S13">
-        <v>149.9531897630014</v>
+        <v>149.9379044761576</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -23627,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.131416256760586</v>
+        <v>1.113956488763036</v>
       </c>
       <c r="O14">
-        <v>1.121778003887756</v>
+        <v>1.104319989337392</v>
       </c>
       <c r="P14">
-        <v>1.125275374767228</v>
+        <v>1.107813925318479</v>
       </c>
       <c r="Q14">
-        <v>29.56772400511906</v>
+        <v>29.54652784979259</v>
       </c>
       <c r="R14">
-        <v>-90.511699738346</v>
+        <v>-90.53432684023153</v>
       </c>
       <c r="S14">
-        <v>149.953189757787</v>
+        <v>149.9379044746176</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -23686,22 +23686,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.147147607095435</v>
+        <v>1.113956488719857</v>
       </c>
       <c r="O15">
-        <v>1.137517466261443</v>
+        <v>1.104319989303177</v>
       </c>
       <c r="P15">
-        <v>1.140967628992222</v>
+        <v>1.107813925304455</v>
       </c>
       <c r="Q15">
-        <v>29.27544633482212</v>
+        <v>29.54652784842935</v>
       </c>
       <c r="R15">
-        <v>-90.80535415854102</v>
+        <v>-90.5343268401229</v>
       </c>
       <c r="S15">
-        <v>149.6540259095701</v>
+        <v>149.9379044735909</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -23745,22 +23745,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.147147607563107</v>
+        <v>1.12969020382895</v>
       </c>
       <c r="O16">
-        <v>1.137517466702563</v>
+        <v>1.120061953785587</v>
       </c>
       <c r="P16">
-        <v>1.140967629372802</v>
+        <v>1.123507988162794</v>
       </c>
       <c r="Q16">
-        <v>29.27544634116619</v>
+        <v>29.25002840465054</v>
       </c>
       <c r="R16">
-        <v>-90.80535415644742</v>
+        <v>-90.83224004844169</v>
       </c>
       <c r="S16">
-        <v>149.6540259148134</v>
+        <v>149.6343047849853</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -23804,22 +23804,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.131416256892712</v>
+        <v>1.113956488849394</v>
       </c>
       <c r="O17">
-        <v>1.121778004001797</v>
+        <v>1.104319989405824</v>
       </c>
       <c r="P17">
-        <v>1.125275374841679</v>
+        <v>1.107813925346526</v>
       </c>
       <c r="Q17">
-        <v>29.56772401272222</v>
+        <v>29.54652785251907</v>
       </c>
       <c r="R17">
-        <v>-90.51169973359571</v>
+        <v>-90.53432684044877</v>
       </c>
       <c r="S17">
-        <v>149.9531897647395</v>
+        <v>149.9379044766709</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -23863,22 +23863,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.131416256595429</v>
+        <v>1.113956488655089</v>
       </c>
       <c r="O18">
-        <v>1.121778003745204</v>
+        <v>1.104319989251853</v>
       </c>
       <c r="P18">
-        <v>1.125275374674164</v>
+        <v>1.10781392528342</v>
       </c>
       <c r="Q18">
-        <v>29.56772399561511</v>
+        <v>29.5465278463845</v>
       </c>
       <c r="R18">
-        <v>-90.51169974428387</v>
+        <v>-90.53432683995997</v>
       </c>
       <c r="S18">
-        <v>149.9531897490964</v>
+        <v>149.9379044720509</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -23922,22 +23922,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.131416256463304</v>
+        <v>1.113956488568731</v>
       </c>
       <c r="O19">
-        <v>1.121778003631164</v>
+        <v>1.104319989183421</v>
       </c>
       <c r="P19">
-        <v>1.125275374599713</v>
+        <v>1.107813925255373</v>
       </c>
       <c r="Q19">
-        <v>29.56772398801195</v>
+        <v>29.54652784365803</v>
       </c>
       <c r="R19">
-        <v>-90.51169974903418</v>
+        <v>-90.53432683974273</v>
       </c>
       <c r="S19">
-        <v>149.953189742144</v>
+        <v>149.9379044699975</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -23981,22 +23981,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.13141625636421</v>
+        <v>1.113956488503963</v>
       </c>
       <c r="O20">
-        <v>1.121778003545633</v>
+        <v>1.104319989132098</v>
       </c>
       <c r="P20">
-        <v>1.125275374543875</v>
+        <v>1.107813925234338</v>
       </c>
       <c r="Q20">
-        <v>29.56772398230958</v>
+        <v>29.54652784161317</v>
       </c>
       <c r="R20">
-        <v>-90.5116997525969</v>
+        <v>-90.5343268395798</v>
       </c>
       <c r="S20">
-        <v>149.9531897369296</v>
+        <v>149.9379044684575</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -24040,22 +24040,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.131416256331179</v>
+        <v>1.113956488482373</v>
       </c>
       <c r="O21">
-        <v>1.121778003517123</v>
+        <v>1.10431998911499</v>
       </c>
       <c r="P21">
-        <v>1.125275374525262</v>
+        <v>1.107813925227326</v>
       </c>
       <c r="Q21">
-        <v>29.56772398040879</v>
+        <v>29.54652784093155</v>
       </c>
       <c r="R21">
-        <v>-90.51169975378446</v>
+        <v>-90.53432683952549</v>
       </c>
       <c r="S21">
-        <v>149.9531897351915</v>
+        <v>149.9379044679442</v>
       </c>
     </row>
   </sheetData>
@@ -24138,19 +24138,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8876322120148498</v>
+        <v>0.8875257217660582</v>
       </c>
       <c r="D2">
-        <v>0.8876322120283238</v>
+        <v>0.8875257217735375</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.124746965481565</v>
+        <v>5.124132143743506</v>
       </c>
       <c r="G2">
-        <v>5.124746965559357</v>
+        <v>5.124132143786688</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -24159,34 +24159,34 @@
         <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110854</v>
+        <v>0.01094540894378635</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248848</v>
+        <v>0.1094540869961677</v>
       </c>
       <c r="N2">
-        <v>1.096760037206058</v>
+        <v>1.096628457654452</v>
       </c>
       <c r="O2">
-        <v>1.087122999355564</v>
+        <v>1.086992575965386</v>
       </c>
       <c r="P2">
-        <v>1.090614241416103</v>
+        <v>1.090483399175294</v>
       </c>
       <c r="Q2">
-        <v>29.52465666447993</v>
+        <v>29.52465666455193</v>
       </c>
       <c r="R2">
-        <v>-90.55768087637638</v>
+        <v>-90.55768087659949</v>
       </c>
       <c r="S2">
-        <v>149.9221295997429</v>
+        <v>149.9221295998979</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -24230,22 +24230,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.133066568567259</v>
+        <v>1.114781637217872</v>
       </c>
       <c r="O3">
-        <v>1.123428259812098</v>
+        <v>1.105145108866471</v>
       </c>
       <c r="P3">
-        <v>1.12692591302212</v>
+        <v>1.108639190570355</v>
       </c>
       <c r="Q3">
-        <v>29.56970912857354</v>
+        <v>29.54755237944545</v>
       </c>
       <c r="R3">
-        <v>-90.50958091260345</v>
+        <v>-90.53323301035638</v>
       </c>
       <c r="S3">
-        <v>149.9546211658301</v>
+        <v>149.9386433604584</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -24289,22 +24289,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.133066567919106</v>
+        <v>1.11478163679741</v>
       </c>
       <c r="O4">
-        <v>1.123428259249914</v>
+        <v>1.105145108531195</v>
       </c>
       <c r="P4">
-        <v>1.126925912647635</v>
+        <v>1.108639190426723</v>
       </c>
       <c r="Q4">
-        <v>29.56970909030617</v>
+        <v>29.54755236538334</v>
       </c>
       <c r="R4">
-        <v>-90.50958093735963</v>
+        <v>-90.53323301045678</v>
       </c>
       <c r="S4">
-        <v>149.9546211306436</v>
+        <v>149.9386433495884</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -24348,22 +24348,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.164557834247855</v>
+        <v>1.114781636885928</v>
       </c>
       <c r="O5">
-        <v>1.154935744921824</v>
+        <v>1.105145108601779</v>
       </c>
       <c r="P5">
-        <v>1.158340305904789</v>
+        <v>1.108639190456961</v>
       </c>
       <c r="Q5">
-        <v>28.99383213614104</v>
+        <v>29.54755236834378</v>
       </c>
       <c r="R5">
-        <v>-91.0880972003212</v>
+        <v>-90.53323301043565</v>
       </c>
       <c r="S5">
-        <v>149.3652206519039</v>
+        <v>149.9386433518768</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -24407,22 +24407,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.180345817516519</v>
+        <v>1.114781636753151</v>
       </c>
       <c r="O6">
-        <v>1.170731858407895</v>
+        <v>1.105145108495902</v>
       </c>
       <c r="P6">
-        <v>1.174091622969612</v>
+        <v>1.108639190411604</v>
       </c>
       <c r="Q6">
-        <v>28.71743072448572</v>
+        <v>29.54755236390312</v>
       </c>
       <c r="R6">
-        <v>-91.36566419020045</v>
+        <v>-90.53323301046736</v>
       </c>
       <c r="S6">
-        <v>149.0823629637518</v>
+        <v>149.9386433484442</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -24466,22 +24466,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.19616054448925</v>
+        <v>1.114781636642503</v>
       </c>
       <c r="O7">
-        <v>1.186554715703694</v>
+        <v>1.105145108407672</v>
       </c>
       <c r="P7">
-        <v>1.189870797039973</v>
+        <v>1.108639190373806</v>
       </c>
       <c r="Q7">
-        <v>28.4483319313998</v>
+        <v>29.54755236020256</v>
       </c>
       <c r="R7">
-        <v>-91.63583459488324</v>
+        <v>-90.53323301049377</v>
       </c>
       <c r="S7">
-        <v>148.8070008092379</v>
+        <v>149.9386433455837</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -24525,22 +24525,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.212000968616406</v>
+        <v>1.114781636620373</v>
       </c>
       <c r="O8">
-        <v>1.202403261343684</v>
+        <v>1.105145108390026</v>
       </c>
       <c r="P8">
-        <v>1.205676734688025</v>
+        <v>1.108639190366247</v>
       </c>
       <c r="Q8">
-        <v>28.1862615558778</v>
+        <v>29.54755235946245</v>
       </c>
       <c r="R8">
-        <v>-91.8988886190407</v>
+        <v>-90.53323301049906</v>
       </c>
       <c r="S8">
-        <v>148.5388523906326</v>
+        <v>149.9386433450115</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -24584,22 +24584,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.196160544167219</v>
+        <v>1.114781636576114</v>
       </c>
       <c r="O9">
-        <v>1.186554715394719</v>
+        <v>1.105145108354733</v>
       </c>
       <c r="P9">
-        <v>1.189870796759651</v>
+        <v>1.108639190351128</v>
       </c>
       <c r="Q9">
-        <v>28.44833191526277</v>
+        <v>29.54755235798222</v>
       </c>
       <c r="R9">
-        <v>-91.63583460908565</v>
+        <v>-90.53323301050963</v>
       </c>
       <c r="S9">
-        <v>148.807000793614</v>
+        <v>149.9386433438673</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -24643,22 +24643,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.196160543952532</v>
+        <v>1.114781636531855</v>
       </c>
       <c r="O10">
-        <v>1.186554715188736</v>
+        <v>1.105145108319441</v>
       </c>
       <c r="P10">
-        <v>1.18987079657277</v>
+        <v>1.108639190336009</v>
       </c>
       <c r="Q10">
-        <v>28.44833190450474</v>
+        <v>29.547552356502</v>
       </c>
       <c r="R10">
-        <v>-91.63583461855391</v>
+        <v>-90.53323301052021</v>
       </c>
       <c r="S10">
-        <v>148.807000783198</v>
+        <v>149.9386433427231</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -24702,22 +24702,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.196160543845188</v>
+        <v>1.114781636509726</v>
       </c>
       <c r="O11">
-        <v>1.186554715085745</v>
+        <v>1.105145108301795</v>
       </c>
       <c r="P11">
-        <v>1.189870796479329</v>
+        <v>1.108639190328449</v>
       </c>
       <c r="Q11">
-        <v>28.44833189912573</v>
+        <v>29.54755235576189</v>
       </c>
       <c r="R11">
-        <v>-91.63583462328806</v>
+        <v>-90.53323301052548</v>
       </c>
       <c r="S11">
-        <v>148.8070007779901</v>
+        <v>149.938643342151</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.148797697704259</v>
+        <v>1.130515237998232</v>
       </c>
       <c r="O12">
-        <v>1.13916748814262</v>
+        <v>1.120886952413916</v>
       </c>
       <c r="P12">
-        <v>1.142617998224584</v>
+        <v>1.124333166074256</v>
       </c>
       <c r="Q12">
-        <v>29.27782411360775</v>
+        <v>29.25125506762689</v>
       </c>
       <c r="R12">
-        <v>-90.80283924044237</v>
+        <v>-90.83094229250354</v>
       </c>
       <c r="S12">
-        <v>149.6558697803993</v>
+        <v>149.6352561857773</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -24820,22 +24820,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.133066568464919</v>
+        <v>1.114781637151483</v>
       </c>
       <c r="O13">
-        <v>1.123428259723332</v>
+        <v>1.105145108813533</v>
       </c>
       <c r="P13">
-        <v>1.12692591296299</v>
+        <v>1.108639190547676</v>
       </c>
       <c r="Q13">
-        <v>29.56970912253133</v>
+        <v>29.54755237722512</v>
       </c>
       <c r="R13">
-        <v>-90.50958091651233</v>
+        <v>-90.53323301037223</v>
       </c>
       <c r="S13">
-        <v>149.9546211602743</v>
+        <v>149.938643358742</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -24879,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.133066568362579</v>
+        <v>1.114781637085094</v>
       </c>
       <c r="O14">
-        <v>1.123428259634566</v>
+        <v>1.105145108760595</v>
       </c>
       <c r="P14">
-        <v>1.126925912903861</v>
+        <v>1.108639190524997</v>
       </c>
       <c r="Q14">
-        <v>29.56970911648911</v>
+        <v>29.54755237500479</v>
       </c>
       <c r="R14">
-        <v>-90.5095809204212</v>
+        <v>-90.53323301038809</v>
       </c>
       <c r="S14">
-        <v>149.9546211547186</v>
+        <v>149.9386433570257</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -24938,22 +24938,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.14879769728284</v>
+        <v>1.114781637040835</v>
       </c>
       <c r="O15">
-        <v>1.139167487743299</v>
+        <v>1.105145108725302</v>
       </c>
       <c r="P15">
-        <v>1.142617997875894</v>
+        <v>1.108639190509878</v>
       </c>
       <c r="Q15">
-        <v>29.27782410946202</v>
+        <v>29.54755237352456</v>
       </c>
       <c r="R15">
-        <v>-90.80283924104377</v>
+        <v>-90.53323301039865</v>
       </c>
       <c r="S15">
-        <v>149.6558697771858</v>
+        <v>149.9386433558815</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -24997,22 +24997,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.148797697756931</v>
+        <v>1.130515238039041</v>
       </c>
       <c r="O16">
-        <v>1.139167488190815</v>
+        <v>1.12088695245029</v>
       </c>
       <c r="P16">
-        <v>1.142617998262982</v>
+        <v>1.124333166100629</v>
       </c>
       <c r="Q16">
-        <v>29.27782411648477</v>
+        <v>29.25125506925908</v>
       </c>
       <c r="R16">
-        <v>-90.80283923825914</v>
+        <v>-90.83094229158797</v>
       </c>
       <c r="S16">
-        <v>149.6558697831113</v>
+        <v>149.6352561872385</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -25056,22 +25056,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.133066568499033</v>
+        <v>1.114781637173613</v>
       </c>
       <c r="O17">
-        <v>1.123428259752921</v>
+        <v>1.105145108831179</v>
       </c>
       <c r="P17">
-        <v>1.1269259129827</v>
+        <v>1.108639190555236</v>
       </c>
       <c r="Q17">
-        <v>29.5697091245454</v>
+        <v>29.54755237796524</v>
       </c>
       <c r="R17">
-        <v>-90.50958091520937</v>
+        <v>-90.53323301036696</v>
       </c>
       <c r="S17">
-        <v>149.9546211621263</v>
+        <v>149.9386433593141</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -25115,22 +25115,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.133066568192013</v>
+        <v>1.114781636974447</v>
       </c>
       <c r="O18">
-        <v>1.123428259486623</v>
+        <v>1.105145108672364</v>
       </c>
       <c r="P18">
-        <v>1.126925912805313</v>
+        <v>1.1086391904872</v>
       </c>
       <c r="Q18">
-        <v>29.56970910641876</v>
+        <v>29.54755237130422</v>
       </c>
       <c r="R18">
-        <v>-90.50958092693598</v>
+        <v>-90.53323301041451</v>
       </c>
       <c r="S18">
-        <v>149.954621145459</v>
+        <v>149.9386433541652</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -25174,22 +25174,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.133066568055559</v>
+        <v>1.114781636885928</v>
       </c>
       <c r="O19">
-        <v>1.123428259368269</v>
+        <v>1.105145108601779</v>
       </c>
       <c r="P19">
-        <v>1.126925912726474</v>
+        <v>1.108639190456961</v>
       </c>
       <c r="Q19">
-        <v>29.56970909836246</v>
+        <v>29.54755236834378</v>
       </c>
       <c r="R19">
-        <v>-90.50958093214781</v>
+        <v>-90.53323301043564</v>
       </c>
       <c r="S19">
-        <v>149.9546211380513</v>
+        <v>149.9386433518768</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -25233,22 +25233,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.133066567953219</v>
+        <v>1.114781636819539</v>
       </c>
       <c r="O20">
-        <v>1.123428259279503</v>
+        <v>1.105145108548841</v>
       </c>
       <c r="P20">
-        <v>1.126925912667345</v>
+        <v>1.108639190434282</v>
       </c>
       <c r="Q20">
-        <v>29.56970909232025</v>
+        <v>29.54755236612345</v>
       </c>
       <c r="R20">
-        <v>-90.50958093605668</v>
+        <v>-90.5332330104515</v>
       </c>
       <c r="S20">
-        <v>149.9546211324955</v>
+        <v>149.9386433501605</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -25292,22 +25292,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.133066567919106</v>
+        <v>1.11478163679741</v>
       </c>
       <c r="O21">
-        <v>1.123428259249914</v>
+        <v>1.105145108531195</v>
       </c>
       <c r="P21">
-        <v>1.126925912647635</v>
+        <v>1.108639190426723</v>
       </c>
       <c r="Q21">
-        <v>29.56970909030617</v>
+        <v>29.54755236538334</v>
       </c>
       <c r="R21">
-        <v>-90.50958093735963</v>
+        <v>-90.53323301045678</v>
       </c>
       <c r="S21">
-        <v>149.9546211306436</v>
+        <v>149.9386433495884</v>
       </c>
     </row>
   </sheetData>
@@ -26603,22 +26603,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.8876322120209423</v>
+        <v>0.8875257217695106</v>
       </c>
       <c r="C2">
-        <v>15.37424089655022</v>
+        <v>15.37239643129031</v>
       </c>
       <c r="D2">
-        <v>0.01094540889423945</v>
+        <v>0.01094540889423946</v>
       </c>
       <c r="E2">
         <v>0.1094540870674545</v>
       </c>
       <c r="F2">
-        <v>1.087122999354139</v>
+        <v>1.086992575964839</v>
       </c>
       <c r="G2">
-        <v>45.00000000001052</v>
+        <v>45.00000000001066</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -26638,10 +26638,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.121778003846741</v>
+        <v>1.104319989334405</v>
       </c>
       <c r="G3">
-        <v>-0.5116997894498021</v>
+        <v>-0.5343268701327925</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -26661,10 +26661,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.121778003305046</v>
+        <v>1.104319989009356</v>
       </c>
       <c r="G4">
-        <v>-0.5116998120137027</v>
+        <v>-0.5343268691008901</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -26684,10 +26684,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.153285992056062</v>
+        <v>1.104319989077787</v>
       </c>
       <c r="G5">
-        <v>-1.090985926395662</v>
+        <v>-0.5343268693181334</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.16908240669882</v>
+        <v>1.10431998897514</v>
       </c>
       <c r="G6">
-        <v>-1.368905562635282</v>
+        <v>-0.5343268689922697</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -26730,10 +26730,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.184905594339339</v>
+        <v>1.1043199888896</v>
       </c>
       <c r="G7">
-        <v>-1.639408760784465</v>
+        <v>-0.5343268687207164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -26753,10 +26753,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.200754496883309</v>
+        <v>1.104319988872492</v>
       </c>
       <c r="G8">
-        <v>-1.902776874445331</v>
+        <v>-0.5343268686664058</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -26776,10 +26776,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.184905594033479</v>
+        <v>1.104319988838277</v>
       </c>
       <c r="G9">
-        <v>-1.63940877467125</v>
+        <v>-0.5343268685577846</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -26799,10 +26799,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.184905593829572</v>
+        <v>1.104319988804061</v>
       </c>
       <c r="G10">
-        <v>-1.639408783929107</v>
+        <v>-0.5343268684491634</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -26822,10 +26822,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.184905593727618</v>
+        <v>1.104319988786953</v>
       </c>
       <c r="G11">
-        <v>-1.639408788558035</v>
+        <v>-0.5343268683948527</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -26845,10 +26845,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.137517466153869</v>
+        <v>1.120061953351998</v>
       </c>
       <c r="G12">
-        <v>-0.8053542397700998</v>
+        <v>-0.8322401026358393</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -26868,10 +26868,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.12177800376121</v>
+        <v>1.104319989283082</v>
       </c>
       <c r="G13">
-        <v>-0.511699793012524</v>
+        <v>-0.5343268699698606</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -26891,10 +26891,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.12177800367568</v>
+        <v>1.104319989231758</v>
       </c>
       <c r="G14">
-        <v>-0.5116997965752446</v>
+        <v>-0.5343268698069286</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.137517465759877</v>
+        <v>1.104319989197542</v>
       </c>
       <c r="G15">
-        <v>-0.8053542397931993</v>
+        <v>-0.5343268696983077</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.137517466200997</v>
+        <v>1.120061953387839</v>
       </c>
       <c r="G16">
-        <v>-0.8053542376996088</v>
+        <v>-0.8322401017784802</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.121778003789721</v>
+        <v>1.104319989300189</v>
       </c>
       <c r="G17">
-        <v>-0.51169979182495</v>
+        <v>-0.5343268700241712</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.121778003533128</v>
+        <v>1.104319989146218</v>
       </c>
       <c r="G18">
-        <v>-0.5116998025131131</v>
+        <v>-0.5343268695353753</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -27006,10 +27006,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.121778003419087</v>
+        <v>1.104319989077787</v>
       </c>
       <c r="G19">
-        <v>-0.5116998072634082</v>
+        <v>-0.5343268693181327</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.121778003333557</v>
+        <v>1.104319989026463</v>
       </c>
       <c r="G20">
-        <v>-0.511699810826129</v>
+        <v>-0.5343268691552008</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -27052,10 +27052,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.121778003305046</v>
+        <v>1.104319989009356</v>
       </c>
       <c r="G21">
-        <v>-0.5116998120137027</v>
+        <v>-0.5343268691008901</v>
       </c>
     </row>
   </sheetData>
@@ -30855,10 +30855,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.8876322120209168</v>
+        <v>0.887525721769498</v>
       </c>
       <c r="C2">
-        <v>15.37424089654978</v>
+        <v>15.3723964312901</v>
       </c>
       <c r="D2">
         <v>0.01094540889423946</v>
@@ -30867,10 +30867,10 @@
         <v>0.1094540870674545</v>
       </c>
       <c r="F2">
-        <v>1.087122999354107</v>
+        <v>1.086992575964824</v>
       </c>
       <c r="G2">
-        <v>45.00000000001052</v>
+        <v>45.00000000001066</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -30890,10 +30890,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.123428259589971</v>
+        <v>1.105145108755833</v>
       </c>
       <c r="G3">
-        <v>-0.5095809734947246</v>
+        <v>-0.5332330413062508</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -30913,10 +30913,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.123428259027787</v>
+        <v>1.105145108420557</v>
       </c>
       <c r="G4">
-        <v>-0.5095809982508915</v>
+        <v>-0.5332330414066501</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -30936,10 +30936,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.154935744125756</v>
+        <v>1.105145108491141</v>
       </c>
       <c r="G5">
-        <v>-1.088097306635717</v>
+        <v>-0.5332330413855134</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -30959,10 +30959,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.170731857331512</v>
+        <v>1.105145108385265</v>
       </c>
       <c r="G6">
-        <v>-1.365664318508388</v>
+        <v>-0.5332330414172185</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -30982,10 +30982,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.186554714351222</v>
+        <v>1.105145108297034</v>
       </c>
       <c r="G7">
-        <v>-1.63583474472024</v>
+        <v>-0.5332330414436393</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -31005,10 +31005,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.202403259719198</v>
+        <v>1.105145108279388</v>
       </c>
       <c r="G8">
-        <v>-1.898888789953239</v>
+        <v>-0.5332330414489235</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -31028,10 +31028,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.186554714042248</v>
+        <v>1.105145108244096</v>
       </c>
       <c r="G9">
-        <v>-1.635834758922647</v>
+        <v>-0.5332330414594916</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -31051,10 +31051,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.186554713836264</v>
+        <v>1.105145108208803</v>
       </c>
       <c r="G10">
-        <v>-1.635834768390917</v>
+        <v>-0.5332330414700599</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -31074,10 +31074,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.186554713733273</v>
+        <v>1.105145108191157</v>
       </c>
       <c r="G11">
-        <v>-1.635834773125053</v>
+        <v>-0.5332330414753442</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -31097,10 +31097,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.13916748763125</v>
+        <v>1.120886952011292</v>
       </c>
       <c r="G12">
-        <v>-0.8028393242882805</v>
+        <v>-0.8309423471789553</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -31120,10 +31120,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.123428259501205</v>
+        <v>1.105145108702895</v>
       </c>
       <c r="G13">
-        <v>-0.5095809774035938</v>
+        <v>-0.5332330413221031</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -31143,10 +31143,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.123428259412439</v>
+        <v>1.105145108649957</v>
       </c>
       <c r="G14">
-        <v>-0.5095809813124619</v>
+        <v>-0.533233041337956</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -31166,10 +31166,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.139167487231929</v>
+        <v>1.105145108614664</v>
       </c>
       <c r="G15">
-        <v>-0.8028393248896643</v>
+        <v>-0.5332330413485242</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -31189,10 +31189,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.139167487679445</v>
+        <v>1.120886952047666</v>
       </c>
       <c r="G16">
-        <v>-0.8028393221050555</v>
+        <v>-0.8309423462633921</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -31212,10 +31212,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.123428259530794</v>
+        <v>1.105145108720541</v>
       </c>
       <c r="G17">
-        <v>-0.5095809761006372</v>
+        <v>-0.5332330413168191</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -31235,10 +31235,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.123428259264496</v>
+        <v>1.105145108561726</v>
       </c>
       <c r="G18">
-        <v>-0.5095809878272424</v>
+        <v>-0.5332330413643769</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -31258,10 +31258,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.123428259146142</v>
+        <v>1.105145108491141</v>
       </c>
       <c r="G19">
-        <v>-0.5095809930390669</v>
+        <v>-0.5332330413855136</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -31281,10 +31281,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.123428259057376</v>
+        <v>1.105145108438203</v>
       </c>
       <c r="G20">
-        <v>-0.5095809969479351</v>
+        <v>-0.5332330414013658</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -31304,10 +31304,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.123428259027787</v>
+        <v>1.105145108420557</v>
       </c>
       <c r="G21">
-        <v>-0.5095809982508914</v>
+        <v>-0.5332330414066501</v>
       </c>
     </row>
   </sheetData>
@@ -31357,7 +31357,7 @@
         <v>800.0000280430305</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -31853,7 +31853,7 @@
         <v>800.0000280430305</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32349,7 +32349,7 @@
         <v>13.95040725215016</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32381,7 +32381,7 @@
         <v>0.9864427565206948</v>
       </c>
       <c r="G3">
-        <v>-0.6326960868862206</v>
+        <v>-0.6326960868862205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -32404,7 +32404,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G4">
-        <v>-0.632696050320871</v>
+        <v>-0.6326960503208722</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32427,7 +32427,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G5">
-        <v>-0.6326960580188411</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -32450,7 +32450,7 @@
         <v>0.986442756575962</v>
       </c>
       <c r="G6">
-        <v>-0.6326960464718894</v>
+        <v>-0.632696046471888</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -32473,7 +32473,7 @@
         <v>0.9864427565891211</v>
       </c>
       <c r="G7">
-        <v>-0.6326960368494295</v>
+        <v>-0.632696036849428</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32496,7 +32496,7 @@
         <v>0.9864427565917528</v>
       </c>
       <c r="G8">
-        <v>-0.6326960349249376</v>
+        <v>-0.632696034924936</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -32519,7 +32519,7 @@
         <v>0.9864427565970163</v>
       </c>
       <c r="G9">
-        <v>-0.632696031075954</v>
+        <v>-0.6326960310759518</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -32542,7 +32542,7 @@
         <v>0.9864427566022799</v>
       </c>
       <c r="G10">
-        <v>-0.6326960272269702</v>
+        <v>-0.6326960272269678</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -32565,7 +32565,7 @@
         <v>0.9864427566049117</v>
       </c>
       <c r="G11">
-        <v>-0.632696025302478</v>
+        <v>-0.6326960253024758</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -32588,7 +32588,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G12">
-        <v>-0.6326960811127447</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -32611,7 +32611,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G13">
-        <v>-0.6326960811127447</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -32634,7 +32634,7 @@
         <v>0.9864427565364854</v>
       </c>
       <c r="G14">
-        <v>-0.6326960753392683</v>
+        <v>-0.6326960753392682</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -32657,7 +32657,7 @@
         <v>0.986442756541749</v>
       </c>
       <c r="G15">
-        <v>-0.6326960714902848</v>
+        <v>-0.6326960714902844</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -32680,7 +32680,7 @@
         <v>0.9864427565259584</v>
       </c>
       <c r="G16">
-        <v>-0.6326960830372367</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -32703,7 +32703,7 @@
         <v>0.9864427565259584</v>
       </c>
       <c r="G17">
-        <v>-0.6326960830372367</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -32726,7 +32726,7 @@
         <v>0.9864427565496443</v>
       </c>
       <c r="G18">
-        <v>-0.6326960657168078</v>
+        <v>-0.6326960657168081</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -32749,7 +32749,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G19">
-        <v>-0.6326960580188392</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -32772,7 +32772,7 @@
         <v>0.9864427565680668</v>
       </c>
       <c r="G20">
-        <v>-0.632696052245363</v>
+        <v>-0.632696052245364</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -32795,7 +32795,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G21">
-        <v>-0.632696050320871</v>
+        <v>-0.6326960503208721</v>
       </c>
     </row>
   </sheetData>
@@ -32845,7 +32845,7 @@
         <v>13.95040725215016</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32877,7 +32877,7 @@
         <v>0.9864427565206948</v>
       </c>
       <c r="G3">
-        <v>-0.6326960868862206</v>
+        <v>-0.6326960868862205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -32900,7 +32900,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G4">
-        <v>-0.632696050320871</v>
+        <v>-0.6326960503208722</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32923,7 +32923,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G5">
-        <v>-0.6326960580188411</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -32946,7 +32946,7 @@
         <v>0.986442756575962</v>
       </c>
       <c r="G6">
-        <v>-0.6326960464718894</v>
+        <v>-0.632696046471888</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -32969,7 +32969,7 @@
         <v>0.9864427565891211</v>
       </c>
       <c r="G7">
-        <v>-0.6326960368494295</v>
+        <v>-0.632696036849428</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32992,7 +32992,7 @@
         <v>0.9864427565917528</v>
       </c>
       <c r="G8">
-        <v>-0.6326960349249376</v>
+        <v>-0.632696034924936</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -33015,7 +33015,7 @@
         <v>0.9864427565970163</v>
       </c>
       <c r="G9">
-        <v>-0.632696031075954</v>
+        <v>-0.6326960310759518</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -33038,7 +33038,7 @@
         <v>0.9864427566022799</v>
       </c>
       <c r="G10">
-        <v>-0.6326960272269702</v>
+        <v>-0.6326960272269678</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -33061,7 +33061,7 @@
         <v>0.9864427566049117</v>
       </c>
       <c r="G11">
-        <v>-0.632696025302478</v>
+        <v>-0.6326960253024758</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -33084,7 +33084,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G12">
-        <v>-0.6326960811127447</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -33107,7 +33107,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G13">
-        <v>-0.6326960811127447</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -33130,7 +33130,7 @@
         <v>0.9864427565364854</v>
       </c>
       <c r="G14">
-        <v>-0.6326960753392683</v>
+        <v>-0.6326960753392682</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -33153,7 +33153,7 @@
         <v>0.986442756541749</v>
       </c>
       <c r="G15">
-        <v>-0.6326960714902848</v>
+        <v>-0.6326960714902844</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -33176,7 +33176,7 @@
         <v>0.9864427565259584</v>
       </c>
       <c r="G16">
-        <v>-0.6326960830372367</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -33199,7 +33199,7 @@
         <v>0.9864427565259584</v>
       </c>
       <c r="G17">
-        <v>-0.6326960830372367</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -33222,7 +33222,7 @@
         <v>0.9864427565496443</v>
       </c>
       <c r="G18">
-        <v>-0.6326960657168078</v>
+        <v>-0.6326960657168081</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -33245,7 +33245,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G19">
-        <v>-0.6326960580188392</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -33268,7 +33268,7 @@
         <v>0.9864427565680668</v>
       </c>
       <c r="G20">
-        <v>-0.632696052245363</v>
+        <v>-0.632696052245364</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -33291,7 +33291,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G21">
-        <v>-0.632696050320871</v>
+        <v>-0.6326960503208721</v>
       </c>
     </row>
   </sheetData>
@@ -33374,25 +33374,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.01200285961487</v>
+        <v>50.00600284739397</v>
       </c>
       <c r="D2">
-        <v>50.01200285961487</v>
+        <v>50.00600284739397</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.7444331371098</v>
+        <v>288.709792050401</v>
       </c>
       <c r="G2">
-        <v>288.7444331371098</v>
+        <v>288.709792050401</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
         <v>0.01094540889714035</v>
@@ -33401,28 +33401,28 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540899110859</v>
+        <v>0.0109454089437864</v>
       </c>
       <c r="M2">
-        <v>0.1094540869248848</v>
+        <v>0.1094540869961676</v>
       </c>
       <c r="N2">
-        <v>0.9528565947992805</v>
+        <v>0.9527422797908413</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.952856594802291</v>
+        <v>0.9527422797938564</v>
       </c>
       <c r="Q2">
-        <v>-2.830857629369617E-08</v>
+        <v>-1.419777225458855E-08</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.999999971857</v>
+        <v>179.9999999859677</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -33466,22 +33466,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9827545286604488</v>
+        <v>0.9676514799719109</v>
       </c>
       <c r="O3">
-        <v>0.03466642509990013</v>
+        <v>0.01733321434447655</v>
       </c>
       <c r="P3">
-        <v>0.9833002664880135</v>
+        <v>0.9679286269916151</v>
       </c>
       <c r="Q3">
-        <v>1.038888580412087</v>
+        <v>0.5275303388256048</v>
       </c>
       <c r="R3">
-        <v>-89.06942682750798</v>
+        <v>-89.06937222443405</v>
       </c>
       <c r="S3">
-        <v>179.0185006538693</v>
+        <v>179.5014747967317</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -33525,22 +33525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9827545144799787</v>
+        <v>0.9676514657022808</v>
       </c>
       <c r="O4">
-        <v>0.03466643948065504</v>
+        <v>0.01733322895168635</v>
       </c>
       <c r="P4">
-        <v>0.9833002801489273</v>
+        <v>0.9679286410054546</v>
       </c>
       <c r="Q4">
-        <v>1.038888955111008</v>
+        <v>0.5275307419500582</v>
       </c>
       <c r="R4">
-        <v>-89.06938121972794</v>
+        <v>-89.0692795121207</v>
       </c>
       <c r="S4">
-        <v>179.0185002151631</v>
+        <v>179.5014743615664</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -33584,22 +33584,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.015971259539339</v>
+        <v>0.9676514687064131</v>
       </c>
       <c r="O5">
-        <v>0.06697900416482741</v>
+        <v>0.01733322587647872</v>
       </c>
       <c r="P5">
-        <v>1.005244066274685</v>
+        <v>0.9679286380551718</v>
       </c>
       <c r="Q5">
-        <v>1.305630071248118</v>
+        <v>0.5275306570816531</v>
       </c>
       <c r="R5">
-        <v>-99.77995477211614</v>
+        <v>-89.06929903049043</v>
       </c>
       <c r="S5">
-        <v>177.5565930981388</v>
+        <v>179.5014744531801</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -33643,22 +33643,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.032587485121949</v>
+        <v>0.9676514642002139</v>
       </c>
       <c r="O6">
-        <v>0.0834994218642304</v>
+        <v>0.01733323048928764</v>
       </c>
       <c r="P6">
-        <v>1.016453388351619</v>
+        <v>0.9679286424805946</v>
       </c>
       <c r="Q6">
-        <v>1.432563928007315</v>
+        <v>0.5275307843840735</v>
       </c>
       <c r="R6">
-        <v>-101.9909217968057</v>
+        <v>-89.06926975293995</v>
       </c>
       <c r="S6">
-        <v>176.8495392614611</v>
+        <v>179.5014743157595</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -33702,22 +33702,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.049208618935081</v>
+        <v>0.9676514604450479</v>
       </c>
       <c r="O7">
-        <v>0.1001030578992575</v>
+        <v>0.01733323433329834</v>
       </c>
       <c r="P7">
-        <v>1.027814111407818</v>
+        <v>0.967928646168447</v>
       </c>
       <c r="Q7">
-        <v>1.555476689058013</v>
+        <v>0.5275308904694208</v>
       </c>
       <c r="R7">
-        <v>-103.4700789438063</v>
+        <v>-89.06924535499309</v>
       </c>
       <c r="S7">
-        <v>176.1580125933536</v>
+        <v>179.5014742012422</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -33761,22 +33761,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.06583443372637</v>
+        <v>0.9676514596940149</v>
       </c>
       <c r="O8">
-        <v>0.1167544133466402</v>
+        <v>0.01733323510210096</v>
       </c>
       <c r="P8">
-        <v>1.039321268664252</v>
+        <v>0.9679286469060175</v>
       </c>
       <c r="Q8">
-        <v>1.674555330276264</v>
+        <v>0.5275309116864894</v>
       </c>
       <c r="R8">
-        <v>-104.5278754416955</v>
+        <v>-89.06924047540484</v>
       </c>
       <c r="S8">
-        <v>175.4817021836602</v>
+        <v>179.5014741783388</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -33820,22 +33820,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.049208616604706</v>
+        <v>0.9676514581919484</v>
       </c>
       <c r="O9">
-        <v>0.1001030588421803</v>
+        <v>0.01733323663970599</v>
       </c>
       <c r="P9">
-        <v>1.027814113324689</v>
+        <v>0.9679286483811587</v>
       </c>
       <c r="Q9">
-        <v>1.555476729597448</v>
+        <v>0.5275309541206228</v>
       </c>
       <c r="R9">
-        <v>-103.4700763519908</v>
+        <v>-89.06923071622964</v>
       </c>
       <c r="S9">
-        <v>176.1580125282916</v>
+        <v>179.5014741325319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -33879,22 +33879,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.049208615051122</v>
+        <v>0.9676514566898822</v>
       </c>
       <c r="O10">
-        <v>0.1001030594707956</v>
+        <v>0.01733323817731167</v>
       </c>
       <c r="P10">
-        <v>1.027814114602602</v>
+        <v>0.9679286498562996</v>
       </c>
       <c r="Q10">
-        <v>1.555476756623737</v>
+        <v>0.5275309965547572</v>
       </c>
       <c r="R10">
-        <v>-103.4700746241139</v>
+        <v>-89.06922095705616</v>
       </c>
       <c r="S10">
-        <v>176.1580124849169</v>
+        <v>179.5014740867251</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -33938,22 +33938,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.04920861427433</v>
+        <v>0.9676514559388489</v>
       </c>
       <c r="O11">
-        <v>0.1001030597851033</v>
+        <v>0.01733323894611479</v>
       </c>
       <c r="P11">
-        <v>1.027814115241559</v>
+        <v>0.9679286505938702</v>
       </c>
       <c r="Q11">
-        <v>1.55547677013688</v>
+        <v>0.5275310177718275</v>
       </c>
       <c r="R11">
-        <v>-103.4700737601754</v>
+        <v>-89.06921607746965</v>
       </c>
       <c r="S11">
-        <v>176.1580124632296</v>
+        <v>179.5014740638217</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -33997,22 +33997,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9993601909728645</v>
+        <v>0.9842357845946018</v>
       </c>
       <c r="O12">
-        <v>0.05062334037244202</v>
+        <v>0.03348949891909101</v>
       </c>
       <c r="P12">
-        <v>0.9941912627994867</v>
+        <v>0.9787136487783644</v>
       </c>
       <c r="Q12">
-        <v>1.174475724509686</v>
+        <v>0.673821434042566</v>
       </c>
       <c r="R12">
-        <v>-96.13158038052354</v>
+        <v>-99.77993852328099</v>
       </c>
       <c r="S12">
-        <v>178.2794803724032</v>
+        <v>178.745459421908</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -34056,22 +34056,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.982754526421427</v>
+        <v>0.967651477718811</v>
       </c>
       <c r="O13">
-        <v>0.0346664273705432</v>
+        <v>0.01733321665087441</v>
       </c>
       <c r="P13">
-        <v>0.9833002686450002</v>
+        <v>0.9679286292043271</v>
       </c>
       <c r="Q13">
-        <v>1.038888639575025</v>
+        <v>0.5275304024768014</v>
       </c>
       <c r="R13">
-        <v>-89.06941962627623</v>
+        <v>-89.06935758563536</v>
       </c>
       <c r="S13">
-        <v>179.0185005845999</v>
+        <v>179.5014747280214</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -34115,22 +34115,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9827545241824056</v>
+        <v>0.9676514754657117</v>
       </c>
       <c r="O14">
-        <v>0.0346664296411884</v>
+        <v>0.0173332189572748</v>
       </c>
       <c r="P14">
-        <v>0.9833002708019865</v>
+        <v>0.9679286314170383</v>
       </c>
       <c r="Q14">
-        <v>1.038888698738051</v>
+        <v>0.5275304661280722</v>
       </c>
       <c r="R14">
-        <v>-89.06941242504674</v>
+        <v>-89.06934294684402</v>
       </c>
       <c r="S14">
-        <v>179.0185005153305</v>
+        <v>179.5014746593111</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -34174,22 +34174,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9993601869679614</v>
+        <v>0.9676514739636453</v>
       </c>
       <c r="O15">
-        <v>0.05062334297355102</v>
+        <v>0.01733322049487429</v>
       </c>
       <c r="P15">
-        <v>0.9941912662561123</v>
+        <v>0.9679286328921788</v>
       </c>
       <c r="Q15">
-        <v>1.174475821091825</v>
+        <v>0.5275305085621663</v>
       </c>
       <c r="R15">
-        <v>-96.13157159255863</v>
+        <v>-89.06933318765188</v>
       </c>
       <c r="S15">
-        <v>178.2794802738314</v>
+        <v>179.5014746135042</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -34233,22 +34233,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.999360191726623</v>
+        <v>0.9842357853527245</v>
       </c>
       <c r="O16">
-        <v>0.0506233398168757</v>
+        <v>0.03348949845377584</v>
       </c>
       <c r="P16">
-        <v>0.9941912621004221</v>
+        <v>0.9787136480607861</v>
       </c>
       <c r="Q16">
-        <v>1.174475706416138</v>
+        <v>0.673821414498058</v>
       </c>
       <c r="R16">
-        <v>-96.13158209522842</v>
+        <v>-99.77994121434386</v>
       </c>
       <c r="S16">
-        <v>178.2794803950707</v>
+        <v>178.7454594443483</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -34292,22 +34292,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9827545271677678</v>
+        <v>0.9676514784698443</v>
       </c>
       <c r="O17">
-        <v>0.03466642661366215</v>
+        <v>0.01733321588207474</v>
       </c>
       <c r="P17">
-        <v>0.9833002679260048</v>
+        <v>0.9679286284667563</v>
       </c>
       <c r="Q17">
-        <v>1.038888619854045</v>
+        <v>0.5275303812597282</v>
       </c>
       <c r="R17">
-        <v>-89.06942202668685</v>
+        <v>-89.0693624652346</v>
       </c>
       <c r="S17">
-        <v>179.0185006076897</v>
+        <v>179.5014747509248</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -34351,22 +34351,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9827545204507029</v>
+        <v>0.967651471710546</v>
       </c>
       <c r="O18">
-        <v>0.03466643342559727</v>
+        <v>0.01733322280127684</v>
       </c>
       <c r="P18">
-        <v>0.9833002743969637</v>
+        <v>0.9679286351048907</v>
       </c>
       <c r="Q18">
-        <v>1.038888797343036</v>
+        <v>0.5275305722134582</v>
       </c>
       <c r="R18">
-        <v>-89.06940042299894</v>
+        <v>-89.06931854886493</v>
       </c>
       <c r="S18">
-        <v>179.0185003998815</v>
+        <v>179.5014745447939</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -34410,22 +34410,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9827545174653407</v>
+        <v>0.9676514687064135</v>
       </c>
       <c r="O19">
-        <v>0.03466643645312571</v>
+        <v>0.01733322587648072</v>
       </c>
       <c r="P19">
-        <v>0.9833002772729454</v>
+        <v>0.9679286380551726</v>
       </c>
       <c r="Q19">
-        <v>1.03888887622703</v>
+        <v>0.5275306570817657</v>
       </c>
       <c r="R19">
-        <v>-89.06939082136262</v>
+        <v>-89.06929903048925</v>
       </c>
       <c r="S19">
-        <v>179.0185003075223</v>
+        <v>179.5014744531801</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -34469,22 +34469,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9827545152263193</v>
+        <v>0.9676514664533138</v>
       </c>
       <c r="O20">
-        <v>0.03466643872377258</v>
+        <v>0.01733322818288486</v>
       </c>
       <c r="P20">
-        <v>0.9833002794299318</v>
+        <v>0.9679286402678841</v>
       </c>
       <c r="Q20">
-        <v>1.038888935390022</v>
+        <v>0.5275307207329953</v>
       </c>
       <c r="R20">
-        <v>-89.06938362013656</v>
+        <v>-89.06928439171242</v>
       </c>
       <c r="S20">
-        <v>179.0185002382529</v>
+        <v>179.5014743844698</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -34528,22 +34528,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9827545144799787</v>
+        <v>0.9676514657022808</v>
       </c>
       <c r="O21">
-        <v>0.03466643948065486</v>
+        <v>0.01733322895168628</v>
       </c>
       <c r="P21">
-        <v>0.9833002801489273</v>
+        <v>0.9679286410054546</v>
       </c>
       <c r="Q21">
-        <v>1.038888955111008</v>
+        <v>0.5275307419500598</v>
       </c>
       <c r="R21">
-        <v>-89.06938121972793</v>
+        <v>-89.06927951212047</v>
       </c>
       <c r="S21">
-        <v>179.0185002151631</v>
+        <v>179.5014743615664</v>
       </c>
     </row>
   </sheetData>
